--- a/WSC/Test Cases/HRMS/WSC HRMS_Employee Lifecycle.xlsx
+++ b/WSC/Test Cases/HRMS/WSC HRMS_Employee Lifecycle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12300" tabRatio="599" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12330" tabRatio="599" firstSheet="12" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="19" r:id="rId1"/>
@@ -20,8 +20,11 @@
     <sheet name="TC10_Employee_Profile_Updation" sheetId="28" r:id="rId11"/>
     <sheet name="TC11_Employee_Suggestion" sheetId="29" r:id="rId12"/>
     <sheet name="TC12_Employee_Resignation" sheetId="30" r:id="rId13"/>
-    <sheet name="Notification" sheetId="26" r:id="rId14"/>
-    <sheet name="Generic" sheetId="27" r:id="rId15"/>
+    <sheet name="TC13_Employee_Re-engagement" sheetId="31" r:id="rId14"/>
+    <sheet name="TC14_Employee Grievance Cell" sheetId="32" r:id="rId15"/>
+    <sheet name="TC15_Suggestion Committee" sheetId="33" r:id="rId16"/>
+    <sheet name="Notification" sheetId="26" r:id="rId17"/>
+    <sheet name="Generic" sheetId="27" r:id="rId18"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -93,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2088" uniqueCount="1013">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2247" uniqueCount="1079">
   <si>
     <t>CONTENTS</t>
   </si>
@@ -4367,6 +4370,298 @@
     </r>
   </si>
   <si>
+    <t>TC13_Employee_Re-engagement</t>
+  </si>
+  <si>
+    <t>This form will be used for employees to apply for re-engagement.</t>
+  </si>
+  <si>
+    <t>url: wscdemo.eduleadonline.com</t>
+  </si>
+  <si>
+    <t>New Employee Re-engagement, Employee Information, Employee Re Engagement Section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual Results </t>
+  </si>
+  <si>
+    <t>Home &gt; HRMS &gt; Employee Lifecycle &gt;  Employee Re-engagement</t>
+  </si>
+  <si>
+    <t>Employee Re-engagement page should be open</t>
+  </si>
+  <si>
+    <t>View the Employee Re-engagement page</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> saved data should be shown on Employee Re-engagement page</t>
+  </si>
+  <si>
+    <t>Click on Add employee Re-engagement button</t>
+  </si>
+  <si>
+    <t>Add Employee Re-engagement button should be click able &amp; that page should be open</t>
+  </si>
+  <si>
+    <t>click on employee dropdown, select the employee</t>
+  </si>
+  <si>
+    <t>user should able to select employee from dropdown
+it should be a link field</t>
+  </si>
+  <si>
+    <t>verify the screen after put the employee</t>
+  </si>
+  <si>
+    <t>that employee related details should be auto fetched
+Employee Name, Gender, Designation, Employee Number, Date of Joining, Company, Department, Cost to Company (CTC), Employment Type should be auto fetched</t>
+  </si>
+  <si>
+    <t>verify the status</t>
+  </si>
+  <si>
+    <t>status should be shown pending as default</t>
+  </si>
+  <si>
+    <t>after fill all mandatory and required fields, click on save button</t>
+  </si>
+  <si>
+    <t>page should be saved successfully. it should be on draft stage</t>
+  </si>
+  <si>
+    <t>click on action, then submit</t>
+  </si>
+  <si>
+    <t>page should be submitted successfully. email should be sent to HR</t>
+  </si>
+  <si>
+    <t>click on New Contract Start Date, put the date</t>
+  </si>
+  <si>
+    <t>date picker box should be open
+user should able to put the date</t>
+  </si>
+  <si>
+    <t>click on New Contract End  Date, put the date</t>
+  </si>
+  <si>
+    <t>click on action, then approve</t>
+  </si>
+  <si>
+    <t>page should be approved successfully. email should be sent to  Reporting Authority</t>
+  </si>
+  <si>
+    <t>page should be approved successfully. email should be sent to  Department Head</t>
+  </si>
+  <si>
+    <t>page should be approved successfully. email should be sent to  Director</t>
+  </si>
+  <si>
+    <t>when click on action, then rejected</t>
+  </si>
+  <si>
+    <t>On clicking Rejected, the status in the form should be updated to rejected. The higher authority should only be able to reject.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The user should have all the following accesses:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Read,Write,Create, Delete, submit, Cancel &amp; Amend</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The user should have all the following accesses:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Read,Write,Create, submit, Cancel</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The user should have all the following accesses:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Read,Write,Create, submit</t>
+    </r>
+  </si>
+  <si>
+    <t>TC14_Employee Grievance Cell</t>
+  </si>
+  <si>
+    <t>The employee grievance cell it the screen , where you can manage the Members of Grievance Cell.
+The screen is accessible to Employee , HR Admin,HR Manager /Cs officer ,Director,HR Assistant,Grievance Cell Members.</t>
+  </si>
+  <si>
+    <t>New Employee Grievance Cell</t>
+  </si>
+  <si>
+    <t>Home &gt; HRMS &gt; Employee Lifecycle &gt;  Employee Grievance Cell</t>
+  </si>
+  <si>
+    <t>Employee Grievance Cell page should be open</t>
+  </si>
+  <si>
+    <t>View the Employee Grievance Cell page</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> saved data should be shown on Employee Grievance Cell page</t>
+  </si>
+  <si>
+    <t>Click on Add employee Grievance Cell button</t>
+  </si>
+  <si>
+    <t>Add Employee Grievance Cell button should be click able &amp; that page should be open</t>
+  </si>
+  <si>
+    <t>click on Grievance Cell Name text field, fill it</t>
+  </si>
+  <si>
+    <t>Grievance Cell Name text field should be clickable
+user should able to fill it</t>
+  </si>
+  <si>
+    <t>click on add row button of Grievance Committee table</t>
+  </si>
+  <si>
+    <t>new row should be added in Grievance Committee</t>
+  </si>
+  <si>
+    <t>click on view button of any row of Grievance Committee</t>
+  </si>
+  <si>
+    <t>Grievance Committee related fields should be shown</t>
+  </si>
+  <si>
+    <t>employee dropdown should be clickable.
+user should able to select the employee from dropdown
+it should be a link field</t>
+  </si>
+  <si>
+    <t>that employee related details should be auto fetched
+Employee Name, User ID, Designation, Department fields should be auto fetched</t>
+  </si>
+  <si>
+    <t>after fill all mandatory and required fields, click save button</t>
+  </si>
+  <si>
+    <t>page should be saved successfully</t>
+  </si>
+  <si>
+    <t>TC15_Suggestion Committee</t>
+  </si>
+  <si>
+    <t>The Suggestion Committee screen , where you can manage the Members of Suggestion Committee.
+The screen is accessible to  HR Admin,HR Manager /Cs officer ,Director,Suggestion Committee Members.</t>
+  </si>
+  <si>
+    <t>New Suggestion Committee</t>
+  </si>
+  <si>
+    <t>Home &gt; HRMS &gt; Employee Lifecycle &gt; Suggestion Committee</t>
+  </si>
+  <si>
+    <t>Click on Home &gt; HRMS &gt; Employee Lifecycle &gt;  Suggestion Committee</t>
+  </si>
+  <si>
+    <t>Suggestion Committee page should be open</t>
+  </si>
+  <si>
+    <t>View theSuggestion Committee page</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> saved data should be shown onSuggestion Committee page</t>
+  </si>
+  <si>
+    <t>Click on Add Suggestion Committee button</t>
+  </si>
+  <si>
+    <t>Add Suggestion Committee button should be click able &amp; that page should be open</t>
+  </si>
+  <si>
+    <t>click on Committee Name textfield, fill it</t>
+  </si>
+  <si>
+    <t>Committee Name text field should be clickable
+user should able to fill it</t>
+  </si>
+  <si>
+    <t>click on add row button of Members table</t>
+  </si>
+  <si>
+    <t>new row should be added in Members table</t>
+  </si>
+  <si>
     <t>TC_ Employee_Lifecycle</t>
   </si>
   <si>
@@ -5006,7 +5301,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
@@ -5307,13 +5602,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="7" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5510,7 +5805,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -5574,11 +5869,26 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -5596,13 +5906,11 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -5725,7 +6033,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5737,34 +6045,34 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5849,7 +6157,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -5959,25 +6267,100 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5986,16 +6369,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6007,58 +6390,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6473,68 +6823,68 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="1" spans="1:15">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="113"/>
     </row>
     <row r="3" s="25" customFormat="1" ht="90" spans="1:15">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="101" t="s">
+      <c r="C3" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="101" t="s">
+      <c r="D3" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="101" t="s">
+      <c r="E3" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="101" t="s">
+      <c r="F3" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="101" t="s">
+      <c r="G3" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="101" t="s">
+      <c r="H3" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="101" t="s">
+      <c r="I3" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="101" t="s">
+      <c r="J3" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="101" t="s">
+      <c r="K3" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="101" t="s">
+      <c r="L3" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="101" t="s">
+      <c r="M3" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="102" t="s">
+      <c r="N3" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="101" t="s">
+      <c r="O3" s="115" t="s">
         <v>15</v>
       </c>
     </row>
@@ -6557,7 +6907,7 @@
   <sheetPr/>
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -6574,13 +6924,13 @@
   </cols>
   <sheetData>
     <row r="1" s="25" customFormat="1" ht="104" customHeight="1" spans="1:8">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="49" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="49" t="s">
         <v>19</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -6592,13 +6942,13 @@
       <c r="H1" s="4"/>
     </row>
     <row r="2" s="25" customFormat="1" spans="1:8">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="49" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="49" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="4"/>
@@ -6608,7 +6958,7 @@
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="49" t="s">
         <v>111</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -6616,14 +6966,14 @@
       </c>
     </row>
     <row r="4" s="25" customFormat="1" spans="1:4">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="65" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="50" t="s">
         <v>26</v>
       </c>
     </row>
@@ -6644,7 +6994,7 @@
       <c r="D6" s="4"/>
     </row>
     <row r="8" s="25" customFormat="1" spans="1:3">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="50" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -6652,49 +7002,49 @@
       </c>
       <c r="C8" s="4"/>
     </row>
-    <row r="10" s="77" customFormat="1" ht="45" spans="1:8">
-      <c r="A10" s="82" t="s">
+    <row r="10" s="67" customFormat="1" ht="45" spans="1:8">
+      <c r="A10" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="82" t="s">
+      <c r="C10" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="82" t="s">
+      <c r="D10" s="96" t="s">
         <v>115</v>
       </c>
-      <c r="E10" s="83" t="s">
+      <c r="E10" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="82" t="s">
+      <c r="F10" s="96" t="s">
         <v>116</v>
       </c>
-      <c r="G10" s="83" t="s">
+      <c r="G10" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="83" t="s">
+      <c r="H10" s="97" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" s="25" customFormat="1" ht="30" spans="1:8">
-      <c r="A11" s="80"/>
-      <c r="B11" s="69" t="s">
+      <c r="A11" s="53"/>
+      <c r="B11" s="90" t="s">
         <v>602</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="72"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="56"/>
     </row>
     <row r="12" s="25" customFormat="1" ht="30" spans="1:8">
-      <c r="A12" s="73">
+      <c r="A12" s="57">
         <v>1</v>
       </c>
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="95" t="s">
         <v>603</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -6715,7 +7065,7 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" s="25" customFormat="1" ht="30" spans="1:7">
-      <c r="A13" s="77">
+      <c r="A13" s="67">
         <v>2</v>
       </c>
       <c r="B13" s="25" t="s">
@@ -6738,7 +7088,7 @@
       </c>
     </row>
     <row r="14" s="25" customFormat="1" ht="30" spans="1:7">
-      <c r="A14" s="77">
+      <c r="A14" s="67">
         <v>3</v>
       </c>
       <c r="B14" s="25" t="s">
@@ -6761,7 +7111,7 @@
       </c>
     </row>
     <row r="15" s="25" customFormat="1" ht="30" spans="1:7">
-      <c r="A15" s="77">
+      <c r="A15" s="67">
         <v>4</v>
       </c>
       <c r="B15" s="25" t="s">
@@ -6784,22 +7134,22 @@
       </c>
     </row>
     <row r="16" s="25" customFormat="1" ht="45" spans="1:7">
-      <c r="A16" s="77">
+      <c r="A16" s="67">
         <v>5</v>
       </c>
       <c r="B16" s="25" t="s">
         <v>580</v>
       </c>
-      <c r="C16" s="74" t="s">
+      <c r="C16" s="58" t="s">
         <v>295</v>
       </c>
-      <c r="D16" s="74" t="s">
+      <c r="D16" s="58" t="s">
         <v>614</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="F16" s="74" t="s">
+      <c r="F16" s="58" t="s">
         <v>614</v>
       </c>
       <c r="G16" s="20" t="s">
@@ -6807,22 +7157,22 @@
       </c>
     </row>
     <row r="17" s="25" customFormat="1" ht="45" spans="1:7">
-      <c r="A17" s="77">
+      <c r="A17" s="67">
         <v>6</v>
       </c>
       <c r="B17" s="25" t="s">
         <v>581</v>
       </c>
-      <c r="C17" s="74" t="s">
+      <c r="C17" s="58" t="s">
         <v>582</v>
       </c>
-      <c r="D17" s="74" t="s">
+      <c r="D17" s="58" t="s">
         <v>615</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="F17" s="74" t="s">
+      <c r="F17" s="58" t="s">
         <v>615</v>
       </c>
       <c r="G17" s="20" t="s">
@@ -6830,22 +7180,22 @@
       </c>
     </row>
     <row r="18" s="25" customFormat="1" ht="45" spans="1:7">
-      <c r="A18" s="77">
+      <c r="A18" s="67">
         <v>7</v>
       </c>
       <c r="B18" s="25" t="s">
         <v>583</v>
       </c>
-      <c r="C18" s="74" t="s">
+      <c r="C18" s="58" t="s">
         <v>584</v>
       </c>
-      <c r="D18" s="74" t="s">
+      <c r="D18" s="58" t="s">
         <v>616</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="F18" s="74" t="s">
+      <c r="F18" s="58" t="s">
         <v>616</v>
       </c>
       <c r="G18" s="20" t="s">
@@ -6853,22 +7203,22 @@
       </c>
     </row>
     <row r="19" s="25" customFormat="1" ht="60" spans="1:7">
-      <c r="A19" s="77">
+      <c r="A19" s="67">
         <v>8</v>
       </c>
       <c r="B19" s="25" t="s">
         <v>585</v>
       </c>
-      <c r="C19" s="74" t="s">
+      <c r="C19" s="58" t="s">
         <v>586</v>
       </c>
-      <c r="D19" s="74" t="s">
+      <c r="D19" s="58" t="s">
         <v>617</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="F19" s="74" t="s">
+      <c r="F19" s="58" t="s">
         <v>617</v>
       </c>
       <c r="G19" s="20" t="s">
@@ -6876,7 +7226,7 @@
       </c>
     </row>
     <row r="20" s="25" customFormat="1" spans="1:7">
-      <c r="A20" s="77">
+      <c r="A20" s="67">
         <v>9</v>
       </c>
       <c r="B20" s="25" t="s">
@@ -6899,7 +7249,7 @@
       </c>
     </row>
     <row r="21" s="25" customFormat="1" ht="30" spans="1:7">
-      <c r="A21" s="77">
+      <c r="A21" s="67">
         <v>10</v>
       </c>
       <c r="B21" s="25" t="s">
@@ -6922,7 +7272,7 @@
       </c>
     </row>
     <row r="22" s="25" customFormat="1" ht="30" spans="1:7">
-      <c r="A22" s="77">
+      <c r="A22" s="67">
         <v>11</v>
       </c>
       <c r="B22" s="25" t="s">
@@ -6945,22 +7295,22 @@
       </c>
     </row>
     <row r="23" s="25" customFormat="1" ht="45" spans="1:7">
-      <c r="A23" s="77">
+      <c r="A23" s="67">
         <v>12</v>
       </c>
       <c r="B23" s="25" t="s">
         <v>535</v>
       </c>
-      <c r="C23" s="74" t="s">
+      <c r="C23" s="58" t="s">
         <v>587</v>
       </c>
-      <c r="D23" s="74" t="s">
+      <c r="D23" s="58" t="s">
         <v>619</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="F23" s="74" t="s">
+      <c r="F23" s="58" t="s">
         <v>619</v>
       </c>
       <c r="G23" s="20" t="s">
@@ -6968,7 +7318,7 @@
       </c>
     </row>
     <row r="24" s="25" customFormat="1" ht="30" spans="1:7">
-      <c r="A24" s="77">
+      <c r="A24" s="67">
         <v>13</v>
       </c>
       <c r="B24" s="25" t="s">
@@ -6991,7 +7341,7 @@
       </c>
     </row>
     <row r="25" s="25" customFormat="1" ht="30" spans="1:7">
-      <c r="A25" s="77">
+      <c r="A25" s="67">
         <v>14</v>
       </c>
       <c r="B25" s="25" t="s">
@@ -7014,7 +7364,7 @@
       </c>
     </row>
     <row r="26" s="25" customFormat="1" spans="1:7">
-      <c r="A26" s="77">
+      <c r="A26" s="67">
         <v>15</v>
       </c>
       <c r="B26" s="25" t="s">
@@ -7037,7 +7387,7 @@
       </c>
     </row>
     <row r="27" s="25" customFormat="1" ht="30" spans="1:7">
-      <c r="A27" s="77">
+      <c r="A27" s="67">
         <v>16</v>
       </c>
       <c r="B27" s="25" t="s">
@@ -7060,7 +7410,7 @@
       </c>
     </row>
     <row r="28" s="25" customFormat="1" ht="30" spans="1:7">
-      <c r="A28" s="77">
+      <c r="A28" s="67">
         <v>17</v>
       </c>
       <c r="B28" s="25" t="s">
@@ -7083,7 +7433,7 @@
       </c>
     </row>
     <row r="29" s="25" customFormat="1" ht="60" spans="1:7">
-      <c r="A29" s="77">
+      <c r="A29" s="67">
         <v>18</v>
       </c>
       <c r="B29" s="25" t="s">
@@ -7106,7 +7456,7 @@
       </c>
     </row>
     <row r="30" s="25" customFormat="1" ht="30" spans="1:7">
-      <c r="A30" s="77">
+      <c r="A30" s="67">
         <v>19</v>
       </c>
       <c r="B30" s="25" t="s">
@@ -7129,7 +7479,7 @@
       </c>
     </row>
     <row r="31" s="25" customFormat="1" ht="30" spans="1:7">
-      <c r="A31" s="77">
+      <c r="A31" s="67">
         <v>20</v>
       </c>
       <c r="B31" s="25" t="s">
@@ -7152,7 +7502,7 @@
       </c>
     </row>
     <row r="32" s="25" customFormat="1" ht="45" spans="1:7">
-      <c r="A32" s="77">
+      <c r="A32" s="67">
         <v>21</v>
       </c>
       <c r="B32" s="25" t="s">
@@ -7175,7 +7525,7 @@
       </c>
     </row>
     <row r="33" s="25" customFormat="1" ht="45" spans="1:7">
-      <c r="A33" s="77">
+      <c r="A33" s="67">
         <v>22</v>
       </c>
       <c r="B33" s="25" t="s">
@@ -7198,20 +7548,20 @@
       </c>
     </row>
     <row r="35" s="25" customFormat="1" spans="1:5">
-      <c r="A35" s="77"/>
-      <c r="B35" s="84" t="s">
+      <c r="A35" s="67"/>
+      <c r="B35" s="98" t="s">
         <v>100</v>
       </c>
-      <c r="C35" s="84"/>
-      <c r="D35" s="58" t="s">
+      <c r="C35" s="98"/>
+      <c r="D35" s="83" t="s">
         <v>203</v>
       </c>
-      <c r="E35" s="85" t="s">
+      <c r="E35" s="99" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="36" s="63" customFormat="1" ht="30" spans="1:5">
-      <c r="A36" s="79"/>
+    <row r="36" s="48" customFormat="1" ht="30" spans="1:5">
+      <c r="A36" s="94"/>
       <c r="B36" s="28" t="s">
         <v>101</v>
       </c>
@@ -7225,8 +7575,8 @@
         <v>121</v>
       </c>
     </row>
-    <row r="37" s="63" customFormat="1" ht="30" spans="1:5">
-      <c r="A37" s="79"/>
+    <row r="37" s="48" customFormat="1" ht="30" spans="1:5">
+      <c r="A37" s="94"/>
       <c r="B37" s="28" t="s">
         <v>103</v>
       </c>
@@ -7240,8 +7590,8 @@
         <v>121</v>
       </c>
     </row>
-    <row r="38" s="63" customFormat="1" ht="30" spans="1:5">
-      <c r="A38" s="79"/>
+    <row r="38" s="48" customFormat="1" ht="30" spans="1:5">
+      <c r="A38" s="94"/>
       <c r="B38" s="28" t="s">
         <v>105</v>
       </c>
@@ -7255,8 +7605,8 @@
         <v>121</v>
       </c>
     </row>
-    <row r="39" s="63" customFormat="1" ht="30" spans="1:5">
-      <c r="A39" s="79"/>
+    <row r="39" s="48" customFormat="1" ht="30" spans="1:5">
+      <c r="A39" s="94"/>
       <c r="B39" s="28" t="s">
         <v>107</v>
       </c>
@@ -7287,7 +7637,7 @@
   <sheetPr/>
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -7306,14 +7656,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="49" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>636</v>
       </c>
       <c r="C1" s="4"/>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="49" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -7325,14 +7675,14 @@
       <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="49" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="49" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="4"/>
@@ -7342,7 +7692,7 @@
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="49" t="s">
         <v>111</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -7350,14 +7700,14 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
     </row>
     <row r="5" ht="30" spans="1:4">
       <c r="A5" s="4">
@@ -7366,7 +7716,7 @@
       <c r="B5" s="4" t="s">
         <v>638</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="50" t="s">
         <v>26</v>
       </c>
     </row>
@@ -7381,7 +7731,7 @@
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="50" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -7391,48 +7741,48 @@
       <c r="D8" s="4"/>
     </row>
     <row r="10" ht="30" spans="1:8">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="67" t="s">
+      <c r="D10" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="E10" s="64" t="s">
+      <c r="E10" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="67" t="s">
+      <c r="F10" s="52" t="s">
         <v>640</v>
       </c>
-      <c r="G10" s="64" t="s">
+      <c r="G10" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="64" t="s">
+      <c r="H10" s="49" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="80"/>
-      <c r="B11" s="69" t="s">
+      <c r="A11" s="53"/>
+      <c r="B11" s="90" t="s">
         <v>641</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="72"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="56"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="73">
+      <c r="A12" s="57">
         <v>1</v>
       </c>
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="95" t="s">
         <v>642</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -7453,7 +7803,7 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="77">
+      <c r="A13" s="67">
         <v>2</v>
       </c>
       <c r="B13" s="25" t="s">
@@ -7476,7 +7826,7 @@
       </c>
     </row>
     <row r="14" ht="30" spans="1:7">
-      <c r="A14" s="77">
+      <c r="A14" s="67">
         <v>3</v>
       </c>
       <c r="B14" s="25" t="s">
@@ -7499,7 +7849,7 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="77">
+      <c r="A15" s="67">
         <v>4</v>
       </c>
       <c r="B15" s="25" t="s">
@@ -7522,22 +7872,22 @@
       </c>
     </row>
     <row r="16" ht="30" spans="1:7">
-      <c r="A16" s="77">
+      <c r="A16" s="67">
         <v>5</v>
       </c>
       <c r="B16" s="25" t="s">
         <v>652</v>
       </c>
-      <c r="C16" s="74" t="s">
+      <c r="C16" s="58" t="s">
         <v>653</v>
       </c>
-      <c r="D16" s="74" t="s">
+      <c r="D16" s="58" t="s">
         <v>654</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="F16" s="74" t="s">
+      <c r="F16" s="58" t="s">
         <v>654</v>
       </c>
       <c r="G16" s="20" t="s">
@@ -7545,7 +7895,7 @@
       </c>
     </row>
     <row r="17" ht="30" spans="1:7">
-      <c r="A17" s="77">
+      <c r="A17" s="67">
         <v>6</v>
       </c>
       <c r="B17" s="25" t="s">
@@ -7568,22 +7918,22 @@
       </c>
     </row>
     <row r="18" ht="30" spans="1:7">
-      <c r="A18" s="77">
+      <c r="A18" s="67">
         <v>7</v>
       </c>
       <c r="B18" s="25" t="s">
         <v>658</v>
       </c>
-      <c r="C18" s="74" t="s">
+      <c r="C18" s="58" t="s">
         <v>659</v>
       </c>
-      <c r="D18" s="74" t="s">
+      <c r="D18" s="58" t="s">
         <v>660</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="F18" s="74" t="s">
+      <c r="F18" s="58" t="s">
         <v>660</v>
       </c>
       <c r="G18" s="20" t="s">
@@ -7591,22 +7941,22 @@
       </c>
     </row>
     <row r="19" ht="30" spans="1:7">
-      <c r="A19" s="77">
+      <c r="A19" s="67">
         <v>8</v>
       </c>
       <c r="B19" s="25" t="s">
         <v>661</v>
       </c>
-      <c r="C19" s="74" t="s">
+      <c r="C19" s="58" t="s">
         <v>659</v>
       </c>
-      <c r="D19" s="74" t="s">
+      <c r="D19" s="58" t="s">
         <v>660</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="F19" s="74" t="s">
+      <c r="F19" s="58" t="s">
         <v>660</v>
       </c>
       <c r="G19" s="20" t="s">
@@ -7614,22 +7964,22 @@
       </c>
     </row>
     <row r="20" ht="30" spans="1:7">
-      <c r="A20" s="77">
+      <c r="A20" s="67">
         <v>9</v>
       </c>
       <c r="B20" s="25" t="s">
         <v>662</v>
       </c>
-      <c r="C20" s="74" t="s">
+      <c r="C20" s="58" t="s">
         <v>659</v>
       </c>
-      <c r="D20" s="74" t="s">
+      <c r="D20" s="58" t="s">
         <v>660</v>
       </c>
       <c r="E20" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="F20" s="74" t="s">
+      <c r="F20" s="58" t="s">
         <v>660</v>
       </c>
       <c r="G20" s="20" t="s">
@@ -7637,22 +7987,22 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="77">
+      <c r="A21" s="67">
         <v>10</v>
       </c>
       <c r="B21" s="25" t="s">
         <v>663</v>
       </c>
-      <c r="C21" s="74" t="s">
+      <c r="C21" s="58" t="s">
         <v>664</v>
       </c>
-      <c r="D21" s="74" t="s">
+      <c r="D21" s="58" t="s">
         <v>665</v>
       </c>
       <c r="E21" s="25" t="s">
         <v>613</v>
       </c>
-      <c r="F21" s="74" t="s">
+      <c r="F21" s="58" t="s">
         <v>666</v>
       </c>
       <c r="G21" s="25" t="s">
@@ -7660,22 +8010,22 @@
       </c>
     </row>
     <row r="22" ht="30" spans="1:7">
-      <c r="A22" s="77">
+      <c r="A22" s="67">
         <v>11</v>
       </c>
       <c r="B22" s="25" t="s">
         <v>667</v>
       </c>
-      <c r="C22" s="74" t="s">
+      <c r="C22" s="58" t="s">
         <v>659</v>
       </c>
-      <c r="D22" s="74" t="s">
+      <c r="D22" s="58" t="s">
         <v>660</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="F22" s="74" t="s">
+      <c r="F22" s="58" t="s">
         <v>660</v>
       </c>
       <c r="G22" s="20" t="s">
@@ -7683,22 +8033,22 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="77">
+      <c r="A23" s="67">
         <v>12</v>
       </c>
       <c r="B23" s="25" t="s">
         <v>668</v>
       </c>
-      <c r="C23" s="74" t="s">
+      <c r="C23" s="58" t="s">
         <v>669</v>
       </c>
-      <c r="D23" s="74" t="s">
+      <c r="D23" s="58" t="s">
         <v>670</v>
       </c>
       <c r="E23" s="25" t="s">
         <v>613</v>
       </c>
-      <c r="F23" s="74" t="s">
+      <c r="F23" s="58" t="s">
         <v>671</v>
       </c>
       <c r="G23" s="25" t="s">
@@ -7706,22 +8056,22 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="77">
+      <c r="A24" s="67">
         <v>13</v>
       </c>
       <c r="B24" s="25" t="s">
         <v>672</v>
       </c>
-      <c r="C24" s="81" t="s">
+      <c r="C24" s="95" t="s">
         <v>673</v>
       </c>
-      <c r="D24" s="81" t="s">
+      <c r="D24" s="95" t="s">
         <v>674</v>
       </c>
       <c r="E24" s="25" t="s">
         <v>613</v>
       </c>
-      <c r="F24" s="81" t="s">
+      <c r="F24" s="95" t="s">
         <v>674</v>
       </c>
       <c r="G24" s="25" t="s">
@@ -7729,7 +8079,7 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="77">
+      <c r="A25" s="67">
         <v>14</v>
       </c>
       <c r="B25" s="25" t="s">
@@ -7752,7 +8102,7 @@
       </c>
     </row>
     <row r="26" ht="30" spans="1:7">
-      <c r="A26" s="77">
+      <c r="A26" s="67">
         <v>15</v>
       </c>
       <c r="B26" s="25" t="s">
@@ -7775,7 +8125,7 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="77">
+      <c r="A27" s="67">
         <v>16</v>
       </c>
       <c r="B27" s="25" t="s">
@@ -7798,7 +8148,7 @@
       </c>
     </row>
     <row r="28" ht="30" spans="1:7">
-      <c r="A28" s="77">
+      <c r="A28" s="67">
         <v>17</v>
       </c>
       <c r="B28" s="25" t="s">
@@ -7821,7 +8171,7 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="77">
+      <c r="A29" s="67">
         <v>18</v>
       </c>
       <c r="B29" s="25" t="s">
@@ -7844,7 +8194,7 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="77">
+      <c r="A30" s="67">
         <v>19</v>
       </c>
       <c r="B30" s="25" t="s">
@@ -7867,7 +8217,7 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="77">
+      <c r="A31" s="67">
         <v>20</v>
       </c>
       <c r="B31" s="25" t="s">
@@ -7890,7 +8240,7 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="77">
+      <c r="A32" s="67">
         <v>21</v>
       </c>
       <c r="B32" s="25" t="s">
@@ -7913,27 +8263,27 @@
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="77"/>
+      <c r="A33" s="67"/>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="77"/>
+      <c r="A34" s="67"/>
     </row>
     <row r="35" s="25" customFormat="1" spans="1:6">
-      <c r="A35" s="77"/>
-      <c r="B35" s="58" t="s">
+      <c r="A35" s="67"/>
+      <c r="B35" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58" t="s">
+      <c r="C35" s="83"/>
+      <c r="D35" s="83" t="s">
         <v>203</v>
       </c>
-      <c r="E35" s="59" t="s">
+      <c r="E35" s="84" t="s">
         <v>204</v>
       </c>
-      <c r="F35" s="78"/>
-    </row>
-    <row r="36" s="63" customFormat="1" ht="30" spans="1:5">
-      <c r="A36" s="79"/>
+      <c r="F35" s="93"/>
+    </row>
+    <row r="36" s="48" customFormat="1" ht="30" spans="1:5">
+      <c r="A36" s="94"/>
       <c r="B36" s="28" t="s">
         <v>101</v>
       </c>
@@ -7943,12 +8293,12 @@
       <c r="D36" s="28" t="s">
         <v>698</v>
       </c>
-      <c r="E36" s="63" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="37" s="63" customFormat="1" spans="1:5">
-      <c r="A37" s="79"/>
+      <c r="E36" s="48" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" s="48" customFormat="1" spans="1:5">
+      <c r="A37" s="94"/>
       <c r="B37" s="28" t="s">
         <v>103</v>
       </c>
@@ -7958,12 +8308,12 @@
       <c r="D37" s="28" t="s">
         <v>699</v>
       </c>
-      <c r="E37" s="63" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="38" s="63" customFormat="1" spans="1:5">
-      <c r="A38" s="79"/>
+      <c r="E37" s="48" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" s="48" customFormat="1" spans="1:5">
+      <c r="A38" s="94"/>
       <c r="B38" s="28" t="s">
         <v>105</v>
       </c>
@@ -7973,12 +8323,12 @@
       <c r="D38" s="28" t="s">
         <v>700</v>
       </c>
-      <c r="E38" s="63" t="s">
+      <c r="E38" s="48" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="39" s="63" customFormat="1" ht="30" spans="1:5">
-      <c r="A39" s="79"/>
+    <row r="39" s="48" customFormat="1" ht="30" spans="1:5">
+      <c r="A39" s="94"/>
       <c r="B39" s="28" t="s">
         <v>107</v>
       </c>
@@ -7988,21 +8338,21 @@
       <c r="D39" s="28" t="s">
         <v>702</v>
       </c>
-      <c r="E39" s="63" t="s">
+      <c r="E39" s="48" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="77"/>
+      <c r="A40" s="67"/>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="77"/>
+      <c r="A41" s="67"/>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="77"/>
+      <c r="A42" s="67"/>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="77"/>
+      <c r="A43" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8021,7 +8371,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -8039,14 +8389,14 @@
   </cols>
   <sheetData>
     <row r="1" s="25" customFormat="1" spans="1:9">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="49" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>703</v>
       </c>
       <c r="C1" s="4"/>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="49" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -8058,14 +8408,14 @@
       <c r="I1" s="4"/>
     </row>
     <row r="2" s="25" customFormat="1" spans="1:9">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="49" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="49" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="4"/>
@@ -8075,7 +8425,7 @@
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="49" t="s">
         <v>111</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -8083,14 +8433,14 @@
       </c>
     </row>
     <row r="4" s="25" customFormat="1" spans="1:4">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
     </row>
     <row r="5" s="25" customFormat="1" ht="45" spans="1:4">
       <c r="A5" s="4">
@@ -8099,7 +8449,7 @@
       <c r="B5" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="50" t="s">
         <v>26</v>
       </c>
     </row>
@@ -8114,7 +8464,7 @@
       <c r="D7" s="4"/>
     </row>
     <row r="8" s="25" customFormat="1" spans="1:4">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="50" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -8124,51 +8474,51 @@
       <c r="D8" s="4"/>
     </row>
     <row r="10" s="25" customFormat="1" ht="30" spans="1:8">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="67" t="s">
+      <c r="D10" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="E10" s="64" t="s">
+      <c r="E10" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="67" t="s">
+      <c r="F10" s="52" t="s">
         <v>640</v>
       </c>
-      <c r="G10" s="64" t="s">
+      <c r="G10" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="64" t="s">
+      <c r="H10" s="49" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" s="25" customFormat="1" spans="1:8">
-      <c r="A11" s="68"/>
-      <c r="B11" s="69" t="s">
+      <c r="A11" s="89"/>
+      <c r="B11" s="90" t="s">
         <v>706</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="72"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="56"/>
     </row>
     <row r="12" s="25" customFormat="1" spans="1:8">
-      <c r="A12" s="73">
+      <c r="A12" s="57">
         <v>1</v>
       </c>
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="58" t="s">
         <v>707</v>
       </c>
-      <c r="C12" s="75" t="s">
+      <c r="C12" s="68" t="s">
         <v>708</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -8186,7 +8536,7 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" s="25" customFormat="1" spans="1:7">
-      <c r="A13" s="73">
+      <c r="A13" s="57">
         <v>2</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -8209,7 +8559,7 @@
       </c>
     </row>
     <row r="14" s="25" customFormat="1" ht="30" spans="1:7">
-      <c r="A14" s="73">
+      <c r="A14" s="57">
         <v>3</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -8232,7 +8582,7 @@
       </c>
     </row>
     <row r="15" s="25" customFormat="1" spans="1:7">
-      <c r="A15" s="73">
+      <c r="A15" s="57">
         <v>4</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -8255,22 +8605,22 @@
       </c>
     </row>
     <row r="16" s="25" customFormat="1" ht="30" spans="1:7">
-      <c r="A16" s="73">
+      <c r="A16" s="57">
         <v>5</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="C16" s="76" t="s">
+      <c r="C16" s="92" t="s">
         <v>653</v>
       </c>
-      <c r="D16" s="74" t="s">
+      <c r="D16" s="58" t="s">
         <v>654</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="F16" s="74" t="s">
+      <c r="F16" s="58" t="s">
         <v>654</v>
       </c>
       <c r="G16" s="20" t="s">
@@ -8278,7 +8628,7 @@
       </c>
     </row>
     <row r="17" s="25" customFormat="1" spans="1:7">
-      <c r="A17" s="73">
+      <c r="A17" s="57">
         <v>6</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -8301,22 +8651,22 @@
       </c>
     </row>
     <row r="18" s="25" customFormat="1" ht="30" spans="1:7">
-      <c r="A18" s="73">
+      <c r="A18" s="57">
         <v>7</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="C18" s="76" t="s">
+      <c r="C18" s="92" t="s">
         <v>720</v>
       </c>
-      <c r="D18" s="74" t="s">
+      <c r="D18" s="58" t="s">
         <v>721</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="F18" s="74" t="s">
+      <c r="F18" s="58" t="s">
         <v>721</v>
       </c>
       <c r="G18" s="20" t="s">
@@ -8324,22 +8674,22 @@
       </c>
     </row>
     <row r="19" s="25" customFormat="1" spans="1:7">
-      <c r="A19" s="73">
+      <c r="A19" s="57">
         <v>8</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="C19" s="76" t="s">
+      <c r="C19" s="92" t="s">
         <v>723</v>
       </c>
-      <c r="D19" s="74" t="s">
+      <c r="D19" s="58" t="s">
         <v>724</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="F19" s="74" t="s">
+      <c r="F19" s="58" t="s">
         <v>724</v>
       </c>
       <c r="G19" s="20" t="s">
@@ -8347,22 +8697,22 @@
       </c>
     </row>
     <row r="20" s="25" customFormat="1" spans="1:7">
-      <c r="A20" s="73">
+      <c r="A20" s="57">
         <v>9</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>725</v>
       </c>
-      <c r="C20" s="76" t="s">
+      <c r="C20" s="92" t="s">
         <v>726</v>
       </c>
-      <c r="D20" s="74" t="s">
+      <c r="D20" s="58" t="s">
         <v>727</v>
       </c>
       <c r="E20" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="F20" s="74" t="s">
+      <c r="F20" s="58" t="s">
         <v>727</v>
       </c>
       <c r="G20" s="20" t="s">
@@ -8370,22 +8720,22 @@
       </c>
     </row>
     <row r="21" s="25" customFormat="1" spans="1:7">
-      <c r="A21" s="73">
+      <c r="A21" s="57">
         <v>10</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>728</v>
       </c>
-      <c r="C21" s="76" t="s">
+      <c r="C21" s="92" t="s">
         <v>729</v>
       </c>
-      <c r="D21" s="74" t="s">
+      <c r="D21" s="58" t="s">
         <v>730</v>
       </c>
       <c r="E21" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="F21" s="74" t="s">
+      <c r="F21" s="58" t="s">
         <v>730</v>
       </c>
       <c r="G21" s="20" t="s">
@@ -8393,22 +8743,22 @@
       </c>
     </row>
     <row r="22" s="25" customFormat="1" spans="1:7">
-      <c r="A22" s="73">
+      <c r="A22" s="57">
         <v>11</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>731</v>
       </c>
-      <c r="C22" s="76" t="s">
+      <c r="C22" s="92" t="s">
         <v>732</v>
       </c>
-      <c r="D22" s="74" t="s">
+      <c r="D22" s="58" t="s">
         <v>733</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="F22" s="74" t="s">
+      <c r="F22" s="58" t="s">
         <v>733</v>
       </c>
       <c r="G22" s="20" t="s">
@@ -8416,22 +8766,22 @@
       </c>
     </row>
     <row r="23" s="25" customFormat="1" spans="1:7">
-      <c r="A23" s="73">
+      <c r="A23" s="57">
         <v>12</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>734</v>
       </c>
-      <c r="C23" s="76" t="s">
+      <c r="C23" s="92" t="s">
         <v>695</v>
       </c>
-      <c r="D23" s="74" t="s">
+      <c r="D23" s="58" t="s">
         <v>696</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="F23" s="74" t="s">
+      <c r="F23" s="58" t="s">
         <v>696</v>
       </c>
       <c r="G23" s="20" t="s">
@@ -8439,7 +8789,7 @@
       </c>
     </row>
     <row r="24" s="25" customFormat="1" ht="75" spans="1:7">
-      <c r="A24" s="73">
+      <c r="A24" s="57">
         <v>13</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -8462,25 +8812,25 @@
       </c>
     </row>
     <row r="25" s="25" customFormat="1" spans="1:2">
-      <c r="A25" s="73"/>
+      <c r="A25" s="57"/>
       <c r="B25" s="4"/>
     </row>
     <row r="26" s="25" customFormat="1" spans="1:6">
-      <c r="A26" s="77"/>
-      <c r="B26" s="58" t="s">
+      <c r="A26" s="67"/>
+      <c r="B26" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58" t="s">
+      <c r="C26" s="83"/>
+      <c r="D26" s="83" t="s">
         <v>203</v>
       </c>
-      <c r="E26" s="59" t="s">
+      <c r="E26" s="84" t="s">
         <v>204</v>
       </c>
-      <c r="F26" s="78"/>
-    </row>
-    <row r="27" s="63" customFormat="1" ht="30" spans="1:5">
-      <c r="A27" s="79"/>
+      <c r="F26" s="93"/>
+    </row>
+    <row r="27" s="48" customFormat="1" ht="30" spans="1:5">
+      <c r="A27" s="94"/>
       <c r="B27" s="28" t="s">
         <v>101</v>
       </c>
@@ -8490,12 +8840,12 @@
       <c r="D27" s="28" t="s">
         <v>740</v>
       </c>
-      <c r="E27" s="63" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="28" s="63" customFormat="1" spans="1:5">
-      <c r="A28" s="79"/>
+      <c r="E27" s="48" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" s="48" customFormat="1" spans="1:5">
+      <c r="A28" s="94"/>
       <c r="B28" s="28" t="s">
         <v>103</v>
       </c>
@@ -8505,12 +8855,12 @@
       <c r="D28" s="28" t="s">
         <v>741</v>
       </c>
-      <c r="E28" s="63" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" s="63" customFormat="1" spans="1:5">
-      <c r="A29" s="79"/>
+      <c r="E28" s="48" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" s="48" customFormat="1" spans="1:5">
+      <c r="A29" s="94"/>
       <c r="B29" s="28" t="s">
         <v>105</v>
       </c>
@@ -8520,12 +8870,12 @@
       <c r="D29" s="28" t="s">
         <v>742</v>
       </c>
-      <c r="E29" s="63" t="s">
+      <c r="E29" s="48" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="30" s="63" customFormat="1" ht="30" spans="1:5">
-      <c r="A30" s="79"/>
+    <row r="30" s="48" customFormat="1" ht="30" spans="1:5">
+      <c r="A30" s="94"/>
       <c r="B30" s="28" t="s">
         <v>107</v>
       </c>
@@ -8535,21 +8885,21 @@
       <c r="D30" s="28" t="s">
         <v>744</v>
       </c>
-      <c r="E30" s="63" t="s">
+      <c r="E30" s="48" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="31" s="25" customFormat="1" spans="1:1">
-      <c r="A31" s="77"/>
+      <c r="A31" s="67"/>
     </row>
     <row r="32" s="25" customFormat="1" spans="1:1">
-      <c r="A32" s="77"/>
+      <c r="A32" s="67"/>
     </row>
     <row r="33" s="25" customFormat="1" spans="1:1">
-      <c r="A33" s="77"/>
+      <c r="A33" s="67"/>
     </row>
     <row r="34" s="25" customFormat="1" spans="1:1">
-      <c r="A34" s="77"/>
+      <c r="A34" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8567,8 +8917,8 @@
   <sheetPr/>
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -8596,7 +8946,7 @@
       </c>
       <c r="E1" s="39"/>
       <c r="F1" s="39"/>
-      <c r="G1" s="47"/>
+      <c r="G1" s="72"/>
     </row>
     <row r="2" s="24" customFormat="1" spans="1:7">
       <c r="A2" s="26" t="s">
@@ -8701,13 +9051,13 @@
       <c r="B9" s="28" t="s">
         <v>754</v>
       </c>
-      <c r="C9" s="48"/>
+      <c r="C9" s="73"/>
       <c r="D9" s="29"/>
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
     </row>
     <row r="10" s="24" customFormat="1" spans="1:6">
-      <c r="A10" s="49"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="28" t="s">
         <v>755</v>
       </c>
@@ -8717,7 +9067,7 @@
       <c r="F10" s="28"/>
     </row>
     <row r="11" s="24" customFormat="1" spans="1:6">
-      <c r="A11" s="49"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="28" t="s">
         <v>756</v>
       </c>
@@ -8727,7 +9077,7 @@
       <c r="F11" s="28"/>
     </row>
     <row r="12" s="24" customFormat="1" spans="1:6">
-      <c r="A12" s="49"/>
+      <c r="A12" s="74"/>
       <c r="B12" s="28" t="s">
         <v>757</v>
       </c>
@@ -8737,42 +9087,42 @@
       <c r="F12" s="28"/>
     </row>
     <row r="13" s="24" customFormat="1" spans="1:6">
-      <c r="A13" s="49"/>
+      <c r="A13" s="74"/>
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
-      <c r="D13" s="50"/>
+      <c r="D13" s="75"/>
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
     </row>
     <row r="14" s="24" customFormat="1" spans="1:6">
-      <c r="A14" s="49"/>
+      <c r="A14" s="74"/>
       <c r="C14" s="28"/>
-      <c r="D14" s="50"/>
+      <c r="D14" s="75"/>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
     </row>
     <row r="15" s="24" customFormat="1" ht="15.75" spans="1:6">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="E15" s="53" t="s">
+      <c r="E15" s="78" t="s">
         <v>758</v>
       </c>
-      <c r="F15" s="53" t="s">
+      <c r="F15" s="78" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="16" s="24" customFormat="1" spans="1:7">
-      <c r="A16" s="54">
+      <c r="A16" s="79">
         <v>1</v>
       </c>
       <c r="B16" s="27" t="s">
@@ -8791,7 +9141,7 @@
       <c r="G16" s="28"/>
     </row>
     <row r="17" s="24" customFormat="1" spans="1:7">
-      <c r="A17" s="54">
+      <c r="A17" s="79">
         <v>2</v>
       </c>
       <c r="B17" s="27" t="s">
@@ -8810,7 +9160,7 @@
       <c r="G17" s="28"/>
     </row>
     <row r="18" s="24" customFormat="1" ht="30" spans="1:7">
-      <c r="A18" s="54">
+      <c r="A18" s="79">
         <v>3</v>
       </c>
       <c r="B18" s="27" t="s">
@@ -8829,7 +9179,7 @@
       <c r="G18" s="28"/>
     </row>
     <row r="19" s="24" customFormat="1" spans="1:7">
-      <c r="A19" s="54">
+      <c r="A19" s="79">
         <v>4</v>
       </c>
       <c r="B19" s="28" t="s">
@@ -8848,7 +9198,7 @@
       <c r="G19" s="28"/>
     </row>
     <row r="20" s="24" customFormat="1" spans="1:7">
-      <c r="A20" s="54">
+      <c r="A20" s="79">
         <v>5</v>
       </c>
       <c r="B20" s="27" t="s">
@@ -8867,7 +9217,7 @@
       <c r="G20" s="28"/>
     </row>
     <row r="21" s="24" customFormat="1" spans="1:7">
-      <c r="A21" s="54">
+      <c r="A21" s="79">
         <v>6</v>
       </c>
       <c r="B21" s="27" t="s">
@@ -8886,7 +9236,7 @@
       <c r="G21" s="28"/>
     </row>
     <row r="22" s="24" customFormat="1" spans="1:7">
-      <c r="A22" s="54">
+      <c r="A22" s="79">
         <v>7</v>
       </c>
       <c r="B22" s="27" t="s">
@@ -8905,7 +9255,7 @@
       <c r="G22" s="28"/>
     </row>
     <row r="23" s="24" customFormat="1" spans="1:7">
-      <c r="A23" s="54">
+      <c r="A23" s="79">
         <v>8</v>
       </c>
       <c r="B23" s="28" t="s">
@@ -8924,7 +9274,7 @@
       <c r="G23" s="28"/>
     </row>
     <row r="24" s="24" customFormat="1" spans="1:7">
-      <c r="A24" s="54">
+      <c r="A24" s="79">
         <v>9</v>
       </c>
       <c r="B24" s="28" t="s">
@@ -8943,7 +9293,7 @@
       <c r="G24" s="28"/>
     </row>
     <row r="25" s="24" customFormat="1" spans="1:7">
-      <c r="A25" s="54">
+      <c r="A25" s="79">
         <v>10</v>
       </c>
       <c r="B25" s="28" t="s">
@@ -8962,7 +9312,7 @@
       <c r="G25" s="28"/>
     </row>
     <row r="26" s="24" customFormat="1" spans="1:7">
-      <c r="A26" s="54">
+      <c r="A26" s="79">
         <v>11</v>
       </c>
       <c r="B26" s="28" t="s">
@@ -8981,7 +9331,7 @@
       <c r="G26" s="28"/>
     </row>
     <row r="27" s="24" customFormat="1" spans="1:7">
-      <c r="A27" s="54">
+      <c r="A27" s="79">
         <v>12</v>
       </c>
       <c r="B27" s="28" t="s">
@@ -8997,10 +9347,10 @@
         <v>121</v>
       </c>
       <c r="F27" s="28"/>
-      <c r="G27" s="47"/>
+      <c r="G27" s="72"/>
     </row>
     <row r="28" s="24" customFormat="1" spans="1:7">
-      <c r="A28" s="54">
+      <c r="A28" s="79">
         <v>13</v>
       </c>
       <c r="B28" s="28" t="s">
@@ -9016,10 +9366,10 @@
         <v>121</v>
       </c>
       <c r="F28" s="28"/>
-      <c r="G28" s="47"/>
+      <c r="G28" s="72"/>
     </row>
     <row r="29" s="24" customFormat="1" ht="30" spans="1:6">
-      <c r="A29" s="54">
+      <c r="A29" s="79">
         <v>14</v>
       </c>
       <c r="B29" s="28" t="s">
@@ -9037,7 +9387,7 @@
       <c r="F29" s="28"/>
     </row>
     <row r="30" s="24" customFormat="1" ht="30" spans="1:6">
-      <c r="A30" s="54">
+      <c r="A30" s="79">
         <v>15</v>
       </c>
       <c r="B30" s="28" t="s">
@@ -9055,7 +9405,7 @@
       <c r="F30" s="28"/>
     </row>
     <row r="31" s="24" customFormat="1" spans="1:5">
-      <c r="A31" s="54">
+      <c r="A31" s="79">
         <v>16</v>
       </c>
       <c r="B31" s="28" t="s">
@@ -9072,7 +9422,7 @@
       </c>
     </row>
     <row r="32" s="24" customFormat="1" spans="1:5">
-      <c r="A32" s="54">
+      <c r="A32" s="79">
         <v>17</v>
       </c>
       <c r="B32" s="28" t="s">
@@ -9089,7 +9439,7 @@
       </c>
     </row>
     <row r="33" s="24" customFormat="1" spans="1:5">
-      <c r="A33" s="54">
+      <c r="A33" s="79">
         <v>18</v>
       </c>
       <c r="B33" s="28" t="s">
@@ -9106,7 +9456,7 @@
       </c>
     </row>
     <row r="34" s="24" customFormat="1" ht="45" spans="1:5">
-      <c r="A34" s="54">
+      <c r="A34" s="79">
         <v>19</v>
       </c>
       <c r="B34" s="28" t="s">
@@ -9123,10 +9473,10 @@
       </c>
     </row>
     <row r="35" s="24" customFormat="1" ht="30" spans="1:5">
-      <c r="A35" s="54">
+      <c r="A35" s="79">
         <v>20</v>
       </c>
-      <c r="B35" s="55" t="s">
+      <c r="B35" s="80" t="s">
         <v>806</v>
       </c>
       <c r="C35" s="28" t="s">
@@ -9140,10 +9490,10 @@
       </c>
     </row>
     <row r="36" s="24" customFormat="1" ht="75" spans="1:5">
-      <c r="A36" s="54">
+      <c r="A36" s="79">
         <v>21</v>
       </c>
-      <c r="B36" s="55" t="s">
+      <c r="B36" s="80" t="s">
         <v>808</v>
       </c>
       <c r="C36" s="28" t="s">
@@ -9157,10 +9507,10 @@
       </c>
     </row>
     <row r="37" s="24" customFormat="1" ht="60" spans="1:5">
-      <c r="A37" s="54">
+      <c r="A37" s="79">
         <v>22</v>
       </c>
-      <c r="B37" s="55" t="s">
+      <c r="B37" s="80" t="s">
         <v>811</v>
       </c>
       <c r="C37" s="28" t="s">
@@ -9174,10 +9524,10 @@
       </c>
     </row>
     <row r="38" s="24" customFormat="1" ht="75" spans="1:5">
-      <c r="A38" s="54">
+      <c r="A38" s="79">
         <v>23</v>
       </c>
-      <c r="B38" s="55" t="s">
+      <c r="B38" s="80" t="s">
         <v>814</v>
       </c>
       <c r="C38" s="28" t="s">
@@ -9191,7 +9541,7 @@
       </c>
     </row>
     <row r="39" s="24" customFormat="1" ht="30" spans="1:5">
-      <c r="A39" s="54">
+      <c r="A39" s="79">
         <v>24</v>
       </c>
       <c r="B39" s="28" t="s">
@@ -9208,22 +9558,20 @@
       </c>
     </row>
     <row r="40" s="24" customFormat="1" ht="18.75" spans="2:6">
-      <c r="B40" s="56" t="s">
+      <c r="B40" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="C40" s="57"/>
-      <c r="D40" s="58" t="s">
+      <c r="C40" s="82"/>
+      <c r="D40" s="83" t="s">
         <v>203</v>
       </c>
-      <c r="E40" s="59" t="s">
+      <c r="E40" s="84" t="s">
         <v>204</v>
       </c>
-      <c r="F40" s="60"/>
+      <c r="F40" s="85"/>
     </row>
     <row r="41" s="24" customFormat="1" ht="30" spans="1:5">
-      <c r="A41" s="37">
-        <v>25</v>
-      </c>
+      <c r="A41" s="37"/>
       <c r="B41" s="28" t="s">
         <v>101</v>
       </c>
@@ -9238,9 +9586,7 @@
       </c>
     </row>
     <row r="42" s="24" customFormat="1" spans="1:5">
-      <c r="A42" s="37">
-        <v>26</v>
-      </c>
+      <c r="A42" s="37"/>
       <c r="B42" s="28" t="s">
         <v>103</v>
       </c>
@@ -9255,9 +9601,7 @@
       </c>
     </row>
     <row r="43" s="24" customFormat="1" spans="1:5">
-      <c r="A43" s="37">
-        <v>27</v>
-      </c>
+      <c r="A43" s="37"/>
       <c r="B43" s="28" t="s">
         <v>105</v>
       </c>
@@ -9272,29 +9616,27 @@
       </c>
     </row>
     <row r="44" s="24" customFormat="1" spans="1:5">
-      <c r="A44" s="37">
-        <v>28</v>
-      </c>
+      <c r="A44" s="37"/>
       <c r="B44" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="C44" s="61" t="s">
+      <c r="C44" s="86" t="s">
         <v>822</v>
       </c>
       <c r="D44" s="28"/>
       <c r="E44" s="28"/>
     </row>
     <row r="45" s="24" customFormat="1" spans="1:1">
-      <c r="A45" s="62"/>
+      <c r="A45" s="87"/>
     </row>
     <row r="46" s="24" customFormat="1" spans="1:1">
-      <c r="A46" s="62"/>
+      <c r="A46" s="87"/>
     </row>
     <row r="47" s="24" customFormat="1" spans="1:1">
-      <c r="A47" s="62"/>
+      <c r="A47" s="87"/>
     </row>
     <row r="48" s="24" customFormat="1" spans="1:1">
-      <c r="A48" s="62"/>
+      <c r="A48" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9313,6 +9655,1304 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.4285714285714" style="25" customWidth="1"/>
+    <col min="2" max="2" width="66.4285714285714" style="25" customWidth="1"/>
+    <col min="3" max="3" width="75" style="25" customWidth="1"/>
+    <col min="4" max="4" width="44" style="25" customWidth="1"/>
+    <col min="5" max="5" width="22" style="25" customWidth="1"/>
+    <col min="6" max="6" width="14.8571428571429" style="25" customWidth="1"/>
+    <col min="7" max="7" width="15" style="25" customWidth="1"/>
+    <col min="8" max="16384" width="9.14285714285714" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="25" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A1" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" s="25" customFormat="1" spans="1:7">
+      <c r="A2" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" s="25" customFormat="1" spans="1:7">
+      <c r="A3" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" s="25" customFormat="1" spans="1:7">
+      <c r="A4" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" s="25" customFormat="1" ht="60" spans="1:7">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" s="25" customFormat="1" spans="1:7">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" s="25" customFormat="1" spans="1:7">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" s="25" customFormat="1" spans="1:7">
+      <c r="A8" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" s="25" customFormat="1" spans="1:7">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" s="25" customFormat="1" ht="30" spans="1:7">
+      <c r="A10" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="52" t="s">
+        <v>827</v>
+      </c>
+      <c r="E10" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" s="25" customFormat="1" spans="1:7">
+      <c r="A11" s="53"/>
+      <c r="B11" s="54" t="s">
+        <v>828</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" s="25" customFormat="1" spans="1:7">
+      <c r="A12" s="57">
+        <v>1</v>
+      </c>
+      <c r="B12" s="58" t="s">
+        <v>707</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" s="25" customFormat="1" spans="1:7">
+      <c r="A13" s="57">
+        <v>2</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" s="25" customFormat="1" ht="30" spans="1:7">
+      <c r="A14" s="57">
+        <v>3</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" s="25" customFormat="1" spans="1:7">
+      <c r="A15" s="57">
+        <v>4</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" s="25" customFormat="1" ht="30" spans="1:7">
+      <c r="A16" s="57">
+        <v>5</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="C16" s="58" t="s">
+        <v>835</v>
+      </c>
+      <c r="D16" s="58"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" s="25" customFormat="1" ht="60" spans="1:7">
+      <c r="A17" s="57">
+        <v>6</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" s="25" customFormat="1" spans="1:7">
+      <c r="A18" s="57">
+        <v>7</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="C18" s="58" t="s">
+        <v>839</v>
+      </c>
+      <c r="D18" s="58"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" s="25" customFormat="1" spans="1:7">
+      <c r="A19" s="57">
+        <v>8</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="C19" s="58" t="s">
+        <v>841</v>
+      </c>
+      <c r="D19" s="58"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" s="25" customFormat="1" spans="1:7">
+      <c r="A20" s="57">
+        <v>9</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="C20" s="58" t="s">
+        <v>843</v>
+      </c>
+      <c r="D20" s="58"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" s="25" customFormat="1" ht="30" spans="1:7">
+      <c r="A21" s="57">
+        <v>10</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="C21" s="58" t="s">
+        <v>845</v>
+      </c>
+      <c r="D21" s="58"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" s="25" customFormat="1" ht="30" spans="1:7">
+      <c r="A22" s="57">
+        <v>11</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="C22" s="58" t="s">
+        <v>845</v>
+      </c>
+      <c r="D22" s="58"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" s="25" customFormat="1" spans="1:7">
+      <c r="A23" s="57">
+        <v>12</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="C23" s="58" t="s">
+        <v>848</v>
+      </c>
+      <c r="D23" s="58"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" s="25" customFormat="1" spans="1:7">
+      <c r="A24" s="57">
+        <v>13</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="C24" s="58" t="s">
+        <v>849</v>
+      </c>
+      <c r="D24" s="58"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" s="25" customFormat="1" spans="1:7">
+      <c r="A25" s="57">
+        <v>14</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="C25" s="58" t="s">
+        <v>850</v>
+      </c>
+      <c r="D25" s="69"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+    </row>
+    <row r="26" s="25" customFormat="1" ht="30" spans="1:7">
+      <c r="A26" s="57">
+        <v>15</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="70"/>
+    </row>
+    <row r="27" s="47" customFormat="1" spans="1:1">
+      <c r="A27" s="59"/>
+    </row>
+    <row r="28" s="4" customFormat="1" spans="1:12">
+      <c r="A28" s="57"/>
+      <c r="B28" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60" t="s">
+        <v>203</v>
+      </c>
+      <c r="E28" s="61" t="s">
+        <v>204</v>
+      </c>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="68"/>
+    </row>
+    <row r="29" s="48" customFormat="1" ht="30" spans="1:11">
+      <c r="A29" s="62"/>
+      <c r="B29" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="63" t="s">
+        <v>853</v>
+      </c>
+      <c r="D29" s="63"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="65"/>
+    </row>
+    <row r="30" s="48" customFormat="1" ht="30" spans="1:7">
+      <c r="A30" s="66"/>
+      <c r="B30" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="63" t="s">
+        <v>854</v>
+      </c>
+      <c r="D30" s="28"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+    </row>
+    <row r="31" s="48" customFormat="1" ht="30" spans="1:7">
+      <c r="A31" s="66"/>
+      <c r="B31" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="63" t="s">
+        <v>855</v>
+      </c>
+      <c r="D31" s="28"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+    </row>
+    <row r="32" s="48" customFormat="1" ht="30" spans="1:7">
+      <c r="A32" s="66"/>
+      <c r="B32" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" s="63" t="s">
+        <v>855</v>
+      </c>
+      <c r="D32" s="28"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
+    </row>
+    <row r="33" s="25" customFormat="1" spans="1:1">
+      <c r="A33" s="67"/>
+    </row>
+    <row r="34" s="25" customFormat="1" spans="1:1">
+      <c r="A34" s="67"/>
+    </row>
+    <row r="35" s="25" customFormat="1" spans="1:1">
+      <c r="A35" s="67"/>
+    </row>
+    <row r="36" s="25" customFormat="1" spans="1:1">
+      <c r="A36" s="67"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B28:C28"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.4285714285714" style="25" customWidth="1"/>
+    <col min="2" max="2" width="66.4285714285714" style="25" customWidth="1"/>
+    <col min="3" max="3" width="75" style="25" customWidth="1"/>
+    <col min="4" max="4" width="44" style="25" customWidth="1"/>
+    <col min="5" max="5" width="22" style="25" customWidth="1"/>
+    <col min="6" max="6" width="14.8571428571429" style="25" customWidth="1"/>
+    <col min="7" max="7" width="15" style="25" customWidth="1"/>
+    <col min="8" max="16384" width="9.14285714285714" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="25" customFormat="1" ht="103" customHeight="1" spans="1:7">
+      <c r="A1" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" s="25" customFormat="1" spans="1:7">
+      <c r="A2" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" s="25" customFormat="1" spans="1:7">
+      <c r="A3" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" s="25" customFormat="1" spans="1:7">
+      <c r="A4" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" s="25" customFormat="1" spans="1:7">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" s="25" customFormat="1" spans="1:7">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" s="25" customFormat="1" spans="1:7">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" s="25" customFormat="1" spans="1:7">
+      <c r="A8" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>858</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" s="25" customFormat="1" spans="1:7">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" s="25" customFormat="1" ht="30" spans="1:7">
+      <c r="A10" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" s="25" customFormat="1" spans="1:7">
+      <c r="A11" s="53"/>
+      <c r="B11" s="54" t="s">
+        <v>859</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" s="25" customFormat="1" spans="1:7">
+      <c r="A12" s="57">
+        <v>1</v>
+      </c>
+      <c r="B12" s="58" t="s">
+        <v>707</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" s="25" customFormat="1" spans="1:7">
+      <c r="A13" s="57">
+        <v>2</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" s="25" customFormat="1" ht="30" spans="1:7">
+      <c r="A14" s="57">
+        <v>3</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" s="25" customFormat="1" spans="1:7">
+      <c r="A15" s="57">
+        <v>4</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" s="25" customFormat="1" ht="30" spans="1:7">
+      <c r="A16" s="57">
+        <v>5</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="C16" s="58" t="s">
+        <v>866</v>
+      </c>
+      <c r="D16" s="58"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" s="25" customFormat="1" spans="1:7">
+      <c r="A17" s="57">
+        <v>6</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>867</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>868</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" s="25" customFormat="1" spans="1:7">
+      <c r="A18" s="57">
+        <v>7</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="C18" s="58" t="s">
+        <v>870</v>
+      </c>
+      <c r="D18" s="58"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" s="25" customFormat="1" ht="45" spans="1:7">
+      <c r="A19" s="57">
+        <v>8</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="C19" s="58" t="s">
+        <v>871</v>
+      </c>
+      <c r="D19" s="58"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" s="25" customFormat="1" ht="30" spans="1:7">
+      <c r="A20" s="57">
+        <v>9</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="C20" s="58" t="s">
+        <v>872</v>
+      </c>
+      <c r="D20" s="58"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" s="25" customFormat="1" spans="1:7">
+      <c r="A21" s="57">
+        <v>10</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="C21" s="58" t="s">
+        <v>874</v>
+      </c>
+      <c r="D21" s="58"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" s="47" customFormat="1" spans="1:1">
+      <c r="A22" s="59"/>
+    </row>
+    <row r="23" s="4" customFormat="1" spans="1:12">
+      <c r="A23" s="57"/>
+      <c r="B23" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60" t="s">
+        <v>203</v>
+      </c>
+      <c r="E23" s="61" t="s">
+        <v>204</v>
+      </c>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="68"/>
+    </row>
+    <row r="24" s="48" customFormat="1" spans="1:11">
+      <c r="A24" s="62"/>
+      <c r="B24" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+    </row>
+    <row r="25" s="48" customFormat="1" spans="1:7">
+      <c r="A25" s="66"/>
+      <c r="B25" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="63"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+    </row>
+    <row r="26" s="48" customFormat="1" spans="1:7">
+      <c r="A26" s="66"/>
+      <c r="B26" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="63"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+    </row>
+    <row r="27" s="48" customFormat="1" spans="1:7">
+      <c r="A27" s="66"/>
+      <c r="B27" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="63"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+    </row>
+    <row r="28" s="25" customFormat="1" spans="1:1">
+      <c r="A28" s="67"/>
+    </row>
+    <row r="29" s="25" customFormat="1" spans="1:1">
+      <c r="A29" s="67"/>
+    </row>
+    <row r="30" s="25" customFormat="1" spans="1:1">
+      <c r="A30" s="67"/>
+    </row>
+    <row r="31" s="25" customFormat="1" spans="1:1">
+      <c r="A31" s="67"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B23:C23"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.4285714285714" style="25" customWidth="1"/>
+    <col min="2" max="2" width="66.4285714285714" style="25" customWidth="1"/>
+    <col min="3" max="3" width="75" style="25" customWidth="1"/>
+    <col min="4" max="4" width="44" style="25" customWidth="1"/>
+    <col min="5" max="5" width="22" style="25" customWidth="1"/>
+    <col min="6" max="6" width="14.8571428571429" style="25" customWidth="1"/>
+    <col min="7" max="7" width="15" style="25" customWidth="1"/>
+    <col min="8" max="16384" width="9.14285714285714" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="25" customFormat="1" ht="86" customHeight="1" spans="1:7">
+      <c r="A1" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" s="25" customFormat="1" spans="1:7">
+      <c r="A2" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" s="25" customFormat="1" spans="1:7">
+      <c r="A3" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" s="25" customFormat="1" spans="1:7">
+      <c r="A4" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" s="25" customFormat="1" spans="1:7">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" s="25" customFormat="1" spans="1:7">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" s="25" customFormat="1" spans="1:7">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" s="25" customFormat="1" spans="1:7">
+      <c r="A8" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" s="25" customFormat="1" spans="1:7">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" s="25" customFormat="1" ht="30" spans="1:7">
+      <c r="A10" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" s="25" customFormat="1" spans="1:7">
+      <c r="A11" s="53"/>
+      <c r="B11" s="54" t="s">
+        <v>878</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" s="25" customFormat="1" spans="1:7">
+      <c r="A12" s="57">
+        <v>1</v>
+      </c>
+      <c r="B12" s="58" t="s">
+        <v>879</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" s="25" customFormat="1" spans="1:7">
+      <c r="A13" s="57">
+        <v>2</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" s="25" customFormat="1" spans="1:7">
+      <c r="A14" s="57">
+        <v>3</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" s="25" customFormat="1" spans="1:7">
+      <c r="A15" s="57">
+        <v>4</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" s="25" customFormat="1" ht="30" spans="1:7">
+      <c r="A16" s="57">
+        <v>5</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="C16" s="58" t="s">
+        <v>886</v>
+      </c>
+      <c r="D16" s="58"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" s="25" customFormat="1" spans="1:7">
+      <c r="A17" s="57">
+        <v>6</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" s="25" customFormat="1" ht="45" spans="1:7">
+      <c r="A18" s="57">
+        <v>7</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="C18" s="58" t="s">
+        <v>871</v>
+      </c>
+      <c r="D18" s="58"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" s="25" customFormat="1" ht="30" spans="1:7">
+      <c r="A19" s="57">
+        <v>8</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="C19" s="58" t="s">
+        <v>872</v>
+      </c>
+      <c r="D19" s="58"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" s="25" customFormat="1" spans="1:7">
+      <c r="A20" s="57">
+        <v>9</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="C20" s="58" t="s">
+        <v>874</v>
+      </c>
+      <c r="D20" s="58"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" s="47" customFormat="1" spans="1:1">
+      <c r="A21" s="59"/>
+    </row>
+    <row r="22" s="4" customFormat="1" spans="1:12">
+      <c r="A22" s="57"/>
+      <c r="B22" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60" t="s">
+        <v>203</v>
+      </c>
+      <c r="E22" s="61" t="s">
+        <v>204</v>
+      </c>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="68"/>
+    </row>
+    <row r="23" s="48" customFormat="1" spans="1:11">
+      <c r="A23" s="62"/>
+      <c r="B23" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+    </row>
+    <row r="24" s="48" customFormat="1" spans="1:7">
+      <c r="A24" s="66"/>
+      <c r="B24" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="63"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+    </row>
+    <row r="25" s="48" customFormat="1" spans="1:7">
+      <c r="A25" s="66"/>
+      <c r="B25" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="63"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+    </row>
+    <row r="26" s="48" customFormat="1" spans="1:7">
+      <c r="A26" s="66"/>
+      <c r="B26" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="63"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+    </row>
+    <row r="27" s="25" customFormat="1" spans="1:1">
+      <c r="A27" s="67"/>
+    </row>
+    <row r="28" s="25" customFormat="1" spans="1:1">
+      <c r="A28" s="67"/>
+    </row>
+    <row r="29" s="25" customFormat="1" spans="1:1">
+      <c r="A29" s="67"/>
+    </row>
+    <row r="30" s="25" customFormat="1" spans="1:1">
+      <c r="A30" s="67"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B22:C22"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G15"/>
@@ -9338,13 +10978,13 @@
         <v>17</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>823</v>
+        <v>889</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>824</v>
+        <v>890</v>
       </c>
       <c r="F1" s="28"/>
       <c r="G1" s="29"/>
@@ -9385,7 +11025,7 @@
       </c>
       <c r="B5" s="35"/>
       <c r="C5" s="29" t="s">
-        <v>825</v>
+        <v>891</v>
       </c>
       <c r="D5" s="36"/>
       <c r="E5" s="28"/>
@@ -9397,7 +11037,7 @@
       </c>
       <c r="B6" s="38"/>
       <c r="C6" s="29" t="s">
-        <v>826</v>
+        <v>892</v>
       </c>
       <c r="D6" s="39"/>
       <c r="E6" s="28"/>
@@ -9414,7 +11054,7 @@
       </c>
       <c r="B8" s="40"/>
       <c r="C8" s="28" t="s">
-        <v>827</v>
+        <v>893</v>
       </c>
       <c r="D8" s="28"/>
       <c r="E8" s="29"/>
@@ -9453,7 +11093,7 @@
         <v>32</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>828</v>
+        <v>894</v>
       </c>
       <c r="C12" s="41" t="s">
         <v>33</v>
@@ -9476,13 +11116,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>829</v>
+        <v>895</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>830</v>
+        <v>896</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>831</v>
+        <v>897</v>
       </c>
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
@@ -9496,10 +11136,10 @@
         <v>408</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>832</v>
+        <v>898</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>833</v>
+        <v>899</v>
       </c>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
@@ -9513,10 +11153,10 @@
         <v>478</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>830</v>
+        <v>896</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>831</v>
+        <v>897</v>
       </c>
       <c r="E15" s="28"/>
       <c r="F15" s="28"/>
@@ -9537,7 +11177,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H81"/>
@@ -9561,14 +11201,14 @@
         <v>17</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>834</v>
+        <v>900</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>835</v>
+        <v>901</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -9653,7 +11293,7 @@
         <v>30</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>836</v>
+        <v>902</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -9712,7 +11352,7 @@
     <row r="13" s="1" customFormat="1" spans="1:7">
       <c r="A13" s="13"/>
       <c r="B13" s="14" t="s">
-        <v>837</v>
+        <v>903</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="13"/>
@@ -9722,14 +11362,14 @@
     </row>
     <row r="14" customFormat="1" spans="1:7">
       <c r="A14" s="10" t="s">
-        <v>838</v>
+        <v>904</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>839</v>
+        <v>905</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="18" t="s">
-        <v>840</v>
+        <v>906</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -9737,14 +11377,14 @@
     </row>
     <row r="15" customFormat="1" spans="1:7">
       <c r="A15" s="10" t="s">
-        <v>841</v>
+        <v>907</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>842</v>
+        <v>908</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="18" t="s">
-        <v>843</v>
+        <v>909</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -9752,14 +11392,14 @@
     </row>
     <row r="16" customFormat="1" spans="1:7">
       <c r="A16" s="10" t="s">
-        <v>844</v>
+        <v>910</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>845</v>
+        <v>911</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="18" t="s">
-        <v>846</v>
+        <v>912</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -9767,14 +11407,14 @@
     </row>
     <row r="17" customFormat="1" spans="1:7">
       <c r="A17" s="10" t="s">
-        <v>847</v>
+        <v>913</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>848</v>
+        <v>914</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="18" t="s">
-        <v>849</v>
+        <v>915</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -9783,7 +11423,7 @@
     <row r="18" customFormat="1" spans="1:7">
       <c r="A18" s="10"/>
       <c r="B18" s="14" t="s">
-        <v>850</v>
+        <v>916</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="13"/>
@@ -9793,14 +11433,14 @@
     </row>
     <row r="19" customFormat="1" spans="1:7">
       <c r="A19" s="10" t="s">
-        <v>851</v>
+        <v>917</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>852</v>
+        <v>918</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="18" t="s">
-        <v>853</v>
+        <v>919</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -9808,14 +11448,14 @@
     </row>
     <row r="20" customFormat="1" spans="1:7">
       <c r="A20" s="10" t="s">
-        <v>854</v>
+        <v>920</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>855</v>
+        <v>921</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="18" t="s">
-        <v>856</v>
+        <v>922</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -9823,14 +11463,14 @@
     </row>
     <row r="21" customFormat="1" spans="1:7">
       <c r="A21" s="10" t="s">
-        <v>857</v>
+        <v>923</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>858</v>
+        <v>924</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="10" t="s">
-        <v>859</v>
+        <v>925</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -9838,14 +11478,14 @@
     </row>
     <row r="22" customFormat="1" spans="1:7">
       <c r="A22" s="10" t="s">
-        <v>860</v>
+        <v>926</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>861</v>
+        <v>927</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="10" t="s">
-        <v>862</v>
+        <v>928</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -9854,7 +11494,7 @@
     <row r="23" customFormat="1" spans="1:7">
       <c r="A23" s="10"/>
       <c r="B23" s="14" t="s">
-        <v>863</v>
+        <v>929</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="10"/>
@@ -9864,14 +11504,14 @@
     </row>
     <row r="24" customFormat="1" ht="75" spans="1:7">
       <c r="A24" s="10" t="s">
-        <v>864</v>
+        <v>930</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>865</v>
+        <v>931</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="10" t="s">
-        <v>866</v>
+        <v>932</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -9880,7 +11520,7 @@
     <row r="25" customFormat="1" spans="1:7">
       <c r="A25" s="10"/>
       <c r="B25" s="14" t="s">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="10"/>
@@ -9890,14 +11530,14 @@
     </row>
     <row r="26" customFormat="1" ht="60" spans="1:7">
       <c r="A26" s="10" t="s">
-        <v>868</v>
+        <v>934</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>869</v>
+        <v>935</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="20" t="s">
-        <v>870</v>
+        <v>936</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -9905,14 +11545,14 @@
     </row>
     <row r="27" customFormat="1" spans="1:7">
       <c r="A27" s="10" t="s">
-        <v>871</v>
+        <v>937</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>872</v>
+        <v>938</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="10" t="s">
-        <v>873</v>
+        <v>939</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -9920,14 +11560,14 @@
     </row>
     <row r="28" customFormat="1" spans="1:7">
       <c r="A28" s="10" t="s">
-        <v>874</v>
+        <v>940</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>875</v>
+        <v>941</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="10" t="s">
-        <v>876</v>
+        <v>942</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -9935,10 +11575,10 @@
     </row>
     <row r="29" customFormat="1" spans="1:7">
       <c r="A29" s="10" t="s">
-        <v>877</v>
+        <v>943</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>878</v>
+        <v>944</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="10"/>
@@ -9948,10 +11588,10 @@
     </row>
     <row r="30" customFormat="1" spans="1:7">
       <c r="A30" s="10" t="s">
-        <v>879</v>
+        <v>945</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>880</v>
+        <v>946</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="10"/>
@@ -9962,7 +11602,7 @@
     <row r="31" customFormat="1" spans="1:7">
       <c r="A31" s="16"/>
       <c r="B31" s="6" t="s">
-        <v>881</v>
+        <v>947</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="10"/>
@@ -9972,14 +11612,14 @@
     </row>
     <row r="32" customFormat="1" ht="120" spans="1:7">
       <c r="A32" s="16" t="s">
-        <v>882</v>
+        <v>948</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>883</v>
+        <v>949</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="20" t="s">
-        <v>884</v>
+        <v>950</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -9987,14 +11627,14 @@
     </row>
     <row r="33" customFormat="1" ht="30" spans="1:7">
       <c r="A33" s="3" t="s">
-        <v>885</v>
+        <v>951</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>886</v>
+        <v>952</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="20" t="s">
-        <v>887</v>
+        <v>953</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -10002,14 +11642,14 @@
     </row>
     <row r="34" customFormat="1" ht="30" spans="1:7">
       <c r="A34" s="3" t="s">
-        <v>888</v>
+        <v>954</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>889</v>
+        <v>955</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="20" t="s">
-        <v>890</v>
+        <v>956</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -10017,14 +11657,14 @@
     </row>
     <row r="35" customFormat="1" spans="1:7">
       <c r="A35" s="3" t="s">
-        <v>891</v>
+        <v>957</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>892</v>
+        <v>958</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="10" t="s">
-        <v>893</v>
+        <v>959</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -10032,14 +11672,14 @@
     </row>
     <row r="36" customFormat="1" ht="45" spans="1:7">
       <c r="A36" s="3" t="s">
-        <v>894</v>
+        <v>960</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>895</v>
+        <v>961</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="10" t="s">
-        <v>896</v>
+        <v>962</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -10047,14 +11687,14 @@
     </row>
     <row r="37" customFormat="1" spans="1:7">
       <c r="A37" s="3" t="s">
-        <v>897</v>
+        <v>963</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>898</v>
+        <v>964</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="10" t="s">
-        <v>899</v>
+        <v>965</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -10062,14 +11702,14 @@
     </row>
     <row r="38" customFormat="1" spans="1:7">
       <c r="A38" s="3" t="s">
-        <v>900</v>
+        <v>966</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>901</v>
+        <v>967</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="10" t="s">
-        <v>902</v>
+        <v>968</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -10077,14 +11717,14 @@
     </row>
     <row r="39" customFormat="1" spans="1:7">
       <c r="A39" s="3" t="s">
-        <v>903</v>
+        <v>969</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>904</v>
+        <v>970</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="10" t="s">
-        <v>905</v>
+        <v>971</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -10092,14 +11732,14 @@
     </row>
     <row r="40" customFormat="1" spans="1:7">
       <c r="A40" s="3" t="s">
-        <v>906</v>
+        <v>972</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>907</v>
+        <v>973</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="10" t="s">
-        <v>908</v>
+        <v>974</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -10107,14 +11747,14 @@
     </row>
     <row r="41" customFormat="1" ht="75" spans="1:7">
       <c r="A41" s="3" t="s">
-        <v>909</v>
+        <v>975</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>910</v>
+        <v>976</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="10" t="s">
-        <v>911</v>
+        <v>977</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -10122,14 +11762,14 @@
     </row>
     <row r="42" customFormat="1" spans="1:7">
       <c r="A42" s="3" t="s">
-        <v>912</v>
+        <v>978</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>913</v>
+        <v>979</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="10" t="s">
-        <v>914</v>
+        <v>980</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -10137,14 +11777,14 @@
     </row>
     <row r="43" customFormat="1" spans="1:7">
       <c r="A43" s="3" t="s">
-        <v>915</v>
+        <v>981</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>916</v>
+        <v>982</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="10" t="s">
-        <v>917</v>
+        <v>983</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -10152,14 +11792,14 @@
     </row>
     <row r="44" customFormat="1" spans="1:7">
       <c r="A44" s="3" t="s">
-        <v>918</v>
+        <v>984</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>919</v>
+        <v>985</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="10" t="s">
-        <v>920</v>
+        <v>986</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -10167,14 +11807,14 @@
     </row>
     <row r="45" customFormat="1" spans="1:7">
       <c r="A45" s="3" t="s">
-        <v>921</v>
+        <v>987</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>922</v>
+        <v>988</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="10" t="s">
-        <v>923</v>
+        <v>989</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -10182,14 +11822,14 @@
     </row>
     <row r="46" customFormat="1" spans="1:7">
       <c r="A46" s="3" t="s">
-        <v>924</v>
+        <v>990</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>925</v>
+        <v>991</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="10" t="s">
-        <v>926</v>
+        <v>992</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -10197,10 +11837,10 @@
     </row>
     <row r="47" customFormat="1" spans="1:7">
       <c r="A47" s="3" t="s">
-        <v>927</v>
+        <v>993</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>928</v>
+        <v>994</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="10"/>
@@ -10210,14 +11850,14 @@
     </row>
     <row r="48" customFormat="1" spans="1:7">
       <c r="A48" s="3" t="s">
-        <v>929</v>
+        <v>995</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>930</v>
+        <v>996</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="10" t="s">
-        <v>931</v>
+        <v>997</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -10225,10 +11865,10 @@
     </row>
     <row r="49" customFormat="1" ht="30" spans="1:7">
       <c r="A49" s="3" t="s">
-        <v>932</v>
+        <v>998</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>933</v>
+        <v>999</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="10"/>
@@ -10238,14 +11878,14 @@
     </row>
     <row r="50" customFormat="1" spans="1:7">
       <c r="A50" s="3" t="s">
-        <v>934</v>
+        <v>1000</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>935</v>
+        <v>1001</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="10" t="s">
-        <v>936</v>
+        <v>1002</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -10253,10 +11893,10 @@
     </row>
     <row r="51" customFormat="1" spans="1:7">
       <c r="A51" s="3" t="s">
-        <v>937</v>
+        <v>1003</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>938</v>
+        <v>1004</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="10"/>
@@ -10266,10 +11906,10 @@
     </row>
     <row r="52" customFormat="1" spans="1:7">
       <c r="A52" s="3" t="s">
-        <v>939</v>
+        <v>1005</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>940</v>
+        <v>1006</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="10"/>
@@ -10279,10 +11919,10 @@
     </row>
     <row r="53" customFormat="1" spans="1:7">
       <c r="A53" s="3" t="s">
-        <v>941</v>
+        <v>1007</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>942</v>
+        <v>1008</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="10"/>
@@ -10292,10 +11932,10 @@
     </row>
     <row r="54" customFormat="1" spans="1:7">
       <c r="A54" s="3" t="s">
-        <v>943</v>
+        <v>1009</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>944</v>
+        <v>1010</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="10"/>
@@ -10315,7 +11955,7 @@
     <row r="56" customFormat="1" spans="1:7">
       <c r="A56" s="3"/>
       <c r="B56" s="6" t="s">
-        <v>945</v>
+        <v>1011</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="10"/>
@@ -10325,14 +11965,14 @@
     </row>
     <row r="57" customFormat="1" spans="1:7">
       <c r="A57" s="3" t="s">
-        <v>946</v>
+        <v>1012</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>947</v>
+        <v>1013</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="10" t="s">
-        <v>948</v>
+        <v>1014</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -10350,7 +11990,7 @@
     <row r="59" customFormat="1" spans="1:7">
       <c r="A59" s="3"/>
       <c r="B59" s="6" t="s">
-        <v>839</v>
+        <v>905</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="10"/>
@@ -10360,14 +12000,14 @@
     </row>
     <row r="60" customFormat="1" spans="1:7">
       <c r="A60" s="3" t="s">
-        <v>949</v>
+        <v>1015</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>950</v>
+        <v>1016</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="10" t="s">
-        <v>843</v>
+        <v>909</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -10375,14 +12015,14 @@
     </row>
     <row r="61" customFormat="1" spans="1:7">
       <c r="A61" s="3" t="s">
-        <v>951</v>
+        <v>1017</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>952</v>
+        <v>1018</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="10" t="s">
-        <v>953</v>
+        <v>1019</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -10390,14 +12030,14 @@
     </row>
     <row r="62" customFormat="1" spans="1:7">
       <c r="A62" s="3" t="s">
-        <v>954</v>
+        <v>1020</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>955</v>
+        <v>1021</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="10" t="s">
-        <v>956</v>
+        <v>1022</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -10405,31 +12045,31 @@
     </row>
     <row r="63" customFormat="1" spans="1:7">
       <c r="A63" s="3" t="s">
-        <v>957</v>
+        <v>1023</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>958</v>
+        <v>1024</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="10" t="s">
-        <v>959</v>
+        <v>1025</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>960</v>
+        <v>1026</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
     </row>
     <row r="64" customFormat="1" spans="1:7">
       <c r="A64" s="3" t="s">
-        <v>961</v>
+        <v>1027</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>962</v>
+        <v>1028</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="10" t="s">
-        <v>963</v>
+        <v>1029</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -10437,14 +12077,14 @@
     </row>
     <row r="65" customFormat="1" spans="1:7">
       <c r="A65" s="3" t="s">
-        <v>964</v>
+        <v>1030</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>965</v>
+        <v>1031</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="10" t="s">
-        <v>966</v>
+        <v>1032</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -10452,14 +12092,14 @@
     </row>
     <row r="66" customFormat="1" ht="45" spans="1:7">
       <c r="A66" s="3" t="s">
-        <v>967</v>
+        <v>1033</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>968</v>
+        <v>1034</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="10" t="s">
-        <v>969</v>
+        <v>1035</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -10467,14 +12107,14 @@
     </row>
     <row r="67" customFormat="1" spans="1:7">
       <c r="A67" s="3" t="s">
-        <v>970</v>
+        <v>1036</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>971</v>
+        <v>1037</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="10" t="s">
-        <v>972</v>
+        <v>1038</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -10482,14 +12122,14 @@
     </row>
     <row r="68" customFormat="1" ht="165" spans="1:7">
       <c r="A68" s="3" t="s">
-        <v>973</v>
+        <v>1039</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>974</v>
+        <v>1040</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="20" t="s">
-        <v>975</v>
+        <v>1041</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -10497,14 +12137,14 @@
     </row>
     <row r="69" customFormat="1" spans="1:7">
       <c r="A69" s="3" t="s">
-        <v>976</v>
+        <v>1042</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>977</v>
+        <v>1043</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="10" t="s">
-        <v>978</v>
+        <v>1044</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -10512,14 +12152,14 @@
     </row>
     <row r="70" customFormat="1" spans="1:7">
       <c r="A70" s="3" t="s">
-        <v>979</v>
+        <v>1045</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>980</v>
+        <v>1046</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="10" t="s">
-        <v>981</v>
+        <v>1047</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
@@ -10527,14 +12167,14 @@
     </row>
     <row r="71" customFormat="1" spans="1:7">
       <c r="A71" s="3" t="s">
-        <v>982</v>
+        <v>1048</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>983</v>
+        <v>1049</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="10" t="s">
-        <v>984</v>
+        <v>1050</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
@@ -10542,14 +12182,14 @@
     </row>
     <row r="72" customFormat="1" spans="1:7">
       <c r="A72" s="3" t="s">
-        <v>985</v>
+        <v>1051</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>986</v>
+        <v>1052</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="10" t="s">
-        <v>987</v>
+        <v>1053</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="10"/>
@@ -10557,14 +12197,14 @@
     </row>
     <row r="73" customFormat="1" spans="1:7">
       <c r="A73" s="3" t="s">
-        <v>988</v>
+        <v>1054</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>989</v>
+        <v>1055</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="10" t="s">
-        <v>990</v>
+        <v>1056</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="10"/>
@@ -10572,14 +12212,14 @@
     </row>
     <row r="74" customFormat="1" spans="1:7">
       <c r="A74" s="3" t="s">
-        <v>991</v>
+        <v>1057</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>992</v>
+        <v>1058</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="10" t="s">
-        <v>993</v>
+        <v>1059</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="10"/>
@@ -10587,14 +12227,14 @@
     </row>
     <row r="75" customFormat="1" spans="1:7">
       <c r="A75" s="3" t="s">
-        <v>994</v>
+        <v>1060</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>995</v>
+        <v>1061</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="10" t="s">
-        <v>996</v>
+        <v>1062</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="10"/>
@@ -10602,14 +12242,14 @@
     </row>
     <row r="76" customFormat="1" spans="1:7">
       <c r="A76" s="3" t="s">
-        <v>997</v>
+        <v>1063</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>998</v>
+        <v>1064</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="10" t="s">
-        <v>999</v>
+        <v>1065</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -10617,14 +12257,14 @@
     </row>
     <row r="77" customFormat="1" spans="1:7">
       <c r="A77" s="3" t="s">
-        <v>1000</v>
+        <v>1066</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>1001</v>
+        <v>1067</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="10" t="s">
-        <v>1002</v>
+        <v>1068</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -10633,7 +12273,7 @@
     <row r="78" customFormat="1" spans="1:7">
       <c r="A78" s="3"/>
       <c r="B78" s="22" t="s">
-        <v>1003</v>
+        <v>1069</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -10643,14 +12283,14 @@
     </row>
     <row r="79" customFormat="1" spans="1:7">
       <c r="A79" s="3" t="s">
-        <v>1004</v>
+        <v>1070</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>1005</v>
+        <v>1071</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3" t="s">
-        <v>1006</v>
+        <v>1072</v>
       </c>
       <c r="E79" s="23"/>
       <c r="F79" s="3"/>
@@ -10658,14 +12298,14 @@
     </row>
     <row r="80" customFormat="1" spans="1:7">
       <c r="A80" s="3" t="s">
-        <v>1007</v>
+        <v>1073</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>1008</v>
+        <v>1074</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3" t="s">
-        <v>1009</v>
+        <v>1075</v>
       </c>
       <c r="E80" s="23"/>
       <c r="F80" s="3"/>
@@ -10673,14 +12313,14 @@
     </row>
     <row r="81" customFormat="1" spans="1:4">
       <c r="A81" s="3" t="s">
-        <v>1010</v>
+        <v>1076</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>1011</v>
+        <v>1077</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3" t="s">
-        <v>1012</v>
+        <v>1078</v>
       </c>
     </row>
   </sheetData>
@@ -10700,13 +12340,13 @@
   </sheetPr>
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="15.1428571428571" style="77" customWidth="1"/>
+    <col min="1" max="1" width="15.1428571428571" style="67" customWidth="1"/>
     <col min="2" max="2" width="80" style="25" customWidth="1"/>
     <col min="3" max="3" width="11.2857142857143" style="25" customWidth="1"/>
     <col min="4" max="4" width="60.8571428571429" style="25" customWidth="1"/>
@@ -10716,14 +12356,14 @@
   </cols>
   <sheetData>
     <row r="1" ht="127" customHeight="1" spans="1:7">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="49" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C1" s="4"/>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="49" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -10733,14 +12373,14 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="49" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="49" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="4"/>
@@ -10751,18 +12391,18 @@
       <c r="A3" s="25"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="65" t="s">
+      <c r="C4" s="100"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="50" t="s">
         <v>26</v>
       </c>
     </row>
@@ -10790,7 +12430,7 @@
       <c r="A7" s="25"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="50" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -10803,47 +12443,47 @@
       <c r="A9" s="25"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="82" t="s">
+      <c r="C10" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="67" t="s">
+      <c r="D10" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="67" t="s">
+      <c r="E10" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="64" t="s">
+      <c r="F10" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="64" t="s">
+      <c r="G10" s="49" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="80"/>
-      <c r="B11" s="69" t="s">
+      <c r="A11" s="53"/>
+      <c r="B11" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="69"/>
+      <c r="C11" s="90"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="72"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="56"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="73">
+      <c r="A12" s="57">
         <v>1</v>
       </c>
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="81"/>
+      <c r="C12" s="95"/>
       <c r="D12" s="4" t="s">
         <v>40</v>
       </c>
@@ -10852,13 +12492,13 @@
       <c r="G12" s="4"/>
     </row>
     <row r="13" ht="30" spans="1:7">
-      <c r="A13" s="73">
+      <c r="A13" s="57">
         <v>2</v>
       </c>
-      <c r="B13" s="97" t="s">
+      <c r="B13" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="97"/>
+      <c r="C13" s="111"/>
       <c r="D13" s="4" t="s">
         <v>42</v>
       </c>
@@ -10867,13 +12507,13 @@
       <c r="G13" s="4"/>
     </row>
     <row r="14" ht="30" spans="1:7">
-      <c r="A14" s="73">
+      <c r="A14" s="57">
         <v>3</v>
       </c>
-      <c r="B14" s="75" t="s">
+      <c r="B14" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="75"/>
+      <c r="C14" s="68"/>
       <c r="D14" s="4" t="s">
         <v>44</v>
       </c>
@@ -10882,13 +12522,13 @@
       <c r="G14" s="4"/>
     </row>
     <row r="15" ht="75" spans="1:7">
-      <c r="A15" s="73">
+      <c r="A15" s="57">
         <v>4</v>
       </c>
-      <c r="B15" s="75" t="s">
+      <c r="B15" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="75"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="4" t="s">
         <v>46</v>
       </c>
@@ -10897,13 +12537,13 @@
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="73">
+      <c r="A16" s="57">
         <v>5</v>
       </c>
-      <c r="B16" s="75" t="s">
+      <c r="B16" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="75"/>
+      <c r="C16" s="68"/>
       <c r="D16" s="4" t="s">
         <v>48</v>
       </c>
@@ -10912,13 +12552,13 @@
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="73">
+      <c r="A17" s="57">
         <v>6</v>
       </c>
-      <c r="B17" s="75" t="s">
+      <c r="B17" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="75"/>
+      <c r="C17" s="68"/>
       <c r="D17" s="4" t="s">
         <v>50</v>
       </c>
@@ -10927,7 +12567,7 @@
       <c r="G17" s="4"/>
     </row>
     <row r="18" ht="30" spans="1:7">
-      <c r="A18" s="73">
+      <c r="A18" s="57">
         <v>7</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -10942,14 +12582,14 @@
       <c r="G18" s="4"/>
     </row>
     <row r="19" ht="45" spans="1:7">
-      <c r="A19" s="73">
+      <c r="A19" s="57">
         <v>8</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C19" s="4"/>
-      <c r="D19" s="74" t="s">
+      <c r="D19" s="58" t="s">
         <v>54</v>
       </c>
       <c r="E19" s="4"/>
@@ -10957,7 +12597,7 @@
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="73">
+      <c r="A20" s="57">
         <v>9</v>
       </c>
       <c r="B20" s="25" t="s">
@@ -10971,14 +12611,14 @@
       <c r="G20" s="4"/>
     </row>
     <row r="21" ht="45" spans="1:7">
-      <c r="A21" s="73">
+      <c r="A21" s="57">
         <v>10</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>57</v>
       </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="74" t="s">
+      <c r="D21" s="58" t="s">
         <v>58</v>
       </c>
       <c r="E21" s="4"/>
@@ -10986,7 +12626,7 @@
       <c r="G21" s="4"/>
     </row>
     <row r="22" ht="30" spans="1:7">
-      <c r="A22" s="73">
+      <c r="A22" s="57">
         <v>11</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -11001,7 +12641,7 @@
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="73">
+      <c r="A23" s="57">
         <v>12</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -11016,14 +12656,14 @@
       <c r="G23" s="4"/>
     </row>
     <row r="24" ht="60" spans="1:7">
-      <c r="A24" s="73">
+      <c r="A24" s="57">
         <v>13</v>
       </c>
       <c r="B24" s="19" t="s">
         <v>63</v>
       </c>
       <c r="C24" s="19"/>
-      <c r="D24" s="74" t="s">
+      <c r="D24" s="58" t="s">
         <v>64</v>
       </c>
       <c r="E24" s="4"/>
@@ -11031,7 +12671,7 @@
       <c r="G24" s="4"/>
     </row>
     <row r="25" ht="30" spans="1:7">
-      <c r="A25" s="73">
+      <c r="A25" s="57">
         <v>14</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -11046,7 +12686,7 @@
       <c r="G25" s="4"/>
     </row>
     <row r="26" ht="45" spans="1:4">
-      <c r="A26" s="73">
+      <c r="A26" s="57">
         <v>15</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -11058,19 +12698,19 @@
       </c>
     </row>
     <row r="27" ht="45" spans="1:4">
-      <c r="A27" s="73">
+      <c r="A27" s="57">
         <v>16</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C27" s="4"/>
-      <c r="D27" s="74" t="s">
+      <c r="D27" s="58" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="28" ht="30" spans="1:4">
-      <c r="A28" s="73">
+      <c r="A28" s="57">
         <v>17</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -11082,7 +12722,7 @@
       </c>
     </row>
     <row r="29" ht="30" spans="1:4">
-      <c r="A29" s="73">
+      <c r="A29" s="57">
         <v>18</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -11094,7 +12734,7 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="73">
+      <c r="A30" s="57">
         <v>19</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -11106,7 +12746,7 @@
       </c>
     </row>
     <row r="31" ht="30" spans="1:4">
-      <c r="A31" s="73">
+      <c r="A31" s="57">
         <v>20</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -11118,7 +12758,7 @@
       </c>
     </row>
     <row r="32" ht="30" spans="1:4">
-      <c r="A32" s="73">
+      <c r="A32" s="57">
         <v>21</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -11130,7 +12770,7 @@
       </c>
     </row>
     <row r="33" ht="30" spans="1:4">
-      <c r="A33" s="73">
+      <c r="A33" s="57">
         <v>22</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -11142,7 +12782,7 @@
       </c>
     </row>
     <row r="34" ht="30" spans="1:4">
-      <c r="A34" s="73">
+      <c r="A34" s="57">
         <v>23</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -11154,7 +12794,7 @@
       </c>
     </row>
     <row r="35" ht="45" spans="1:4">
-      <c r="A35" s="73">
+      <c r="A35" s="57">
         <v>24</v>
       </c>
       <c r="B35" s="25" t="s">
@@ -11165,7 +12805,7 @@
       </c>
     </row>
     <row r="36" ht="30" spans="1:4">
-      <c r="A36" s="73">
+      <c r="A36" s="57">
         <v>25</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -11177,7 +12817,7 @@
       </c>
     </row>
     <row r="37" ht="45" spans="1:4">
-      <c r="A37" s="77">
+      <c r="A37" s="67">
         <v>26</v>
       </c>
       <c r="B37" s="25" t="s">
@@ -11188,140 +12828,140 @@
       </c>
     </row>
     <row r="38" ht="60" spans="1:4">
-      <c r="A38" s="77">
+      <c r="A38" s="67">
         <v>27</v>
       </c>
       <c r="B38" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="70"/>
+      <c r="C38" s="55"/>
       <c r="D38" s="19" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="39" ht="45" spans="1:4">
-      <c r="A39" s="73">
+      <c r="A39" s="57">
         <v>28</v>
       </c>
-      <c r="B39" s="75" t="s">
+      <c r="B39" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="75"/>
+      <c r="C39" s="68"/>
       <c r="D39" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="40" ht="30" spans="1:4">
-      <c r="A40" s="73">
+      <c r="A40" s="57">
         <v>29</v>
       </c>
-      <c r="B40" s="75" t="s">
+      <c r="B40" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="75"/>
+      <c r="C40" s="68"/>
       <c r="D40" s="4" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="73">
+      <c r="A41" s="57">
         <v>30</v>
       </c>
-      <c r="B41" s="75" t="s">
+      <c r="B41" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="C41" s="75"/>
+      <c r="C41" s="68"/>
       <c r="D41" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="73">
+      <c r="A42" s="57">
         <v>31</v>
       </c>
-      <c r="B42" s="75" t="s">
+      <c r="B42" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="C42" s="75"/>
+      <c r="C42" s="68"/>
       <c r="D42" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="73"/>
-      <c r="B43" s="75"/>
-      <c r="C43" s="75"/>
+      <c r="A43" s="57"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="68"/>
       <c r="D43" s="4"/>
     </row>
     <row r="44" s="25" customFormat="1" spans="1:4">
-      <c r="A44" s="77"/>
-      <c r="B44" s="84" t="s">
+      <c r="A44" s="67"/>
+      <c r="B44" s="98" t="s">
         <v>100</v>
       </c>
-      <c r="C44" s="84"/>
-      <c r="D44" s="84"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="98"/>
     </row>
     <row r="45" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A45" s="79"/>
+      <c r="A45" s="94"/>
       <c r="B45" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="C45" s="87"/>
+      <c r="C45" s="101"/>
       <c r="D45" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="E45" s="63"/>
-      <c r="F45" s="63"/>
-      <c r="G45" s="63"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
     </row>
     <row r="46" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A46" s="79"/>
+      <c r="A46" s="94"/>
       <c r="B46" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="C46" s="87"/>
+      <c r="C46" s="101"/>
       <c r="D46" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="E46" s="63"/>
-      <c r="F46" s="63"/>
-      <c r="G46" s="63"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
     </row>
     <row r="47" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A47" s="79"/>
+      <c r="A47" s="94"/>
       <c r="B47" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="C47" s="87"/>
+      <c r="C47" s="101"/>
       <c r="D47" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="E47" s="63"/>
-      <c r="F47" s="63"/>
-      <c r="G47" s="63"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="48"/>
     </row>
     <row r="48" s="1" customFormat="1" spans="1:7">
-      <c r="A48" s="79"/>
+      <c r="A48" s="94"/>
       <c r="B48" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="C48" s="87"/>
+      <c r="C48" s="101"/>
       <c r="D48" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="E48" s="63"/>
-      <c r="F48" s="63"/>
-      <c r="G48" s="63"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="73"/>
+      <c r="A49" s="57"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
     </row>
     <row r="51" spans="2:3">
-      <c r="B51" s="98"/>
-      <c r="C51" s="98"/>
+      <c r="B51" s="112"/>
+      <c r="C51" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -11339,7 +12979,7 @@
   <sheetPr/>
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A38" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -11356,13 +12996,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="49" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="49" t="s">
         <v>19</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -11374,13 +13014,13 @@
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="49" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="49" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="4"/>
@@ -11390,7 +13030,7 @@
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="49" t="s">
         <v>111</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -11398,14 +13038,14 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="65" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="50" t="s">
         <v>26</v>
       </c>
     </row>
@@ -11426,7 +13066,7 @@
       <c r="D6" s="4"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="50" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -11435,48 +13075,48 @@
       <c r="C8" s="4"/>
     </row>
     <row r="10" ht="45" spans="1:8">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="67" t="s">
+      <c r="D10" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="E10" s="64" t="s">
+      <c r="E10" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="67" t="s">
+      <c r="F10" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="G10" s="64" t="s">
+      <c r="G10" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="64" t="s">
+      <c r="H10" s="49" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="80"/>
-      <c r="B11" s="69" t="s">
+      <c r="A11" s="53"/>
+      <c r="B11" s="90" t="s">
         <v>117</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="72"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="56"/>
     </row>
     <row r="12" ht="30" spans="1:8">
-      <c r="A12" s="73">
+      <c r="A12" s="57">
         <v>1</v>
       </c>
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="95" t="s">
         <v>118</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -11497,7 +13137,7 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="77">
+      <c r="A13" s="67">
         <v>2</v>
       </c>
       <c r="B13" s="25" t="s">
@@ -11520,7 +13160,7 @@
       </c>
     </row>
     <row r="14" ht="30" spans="1:7">
-      <c r="A14" s="77">
+      <c r="A14" s="67">
         <v>3</v>
       </c>
       <c r="B14" s="25" t="s">
@@ -11543,7 +13183,7 @@
       </c>
     </row>
     <row r="15" ht="45" spans="1:7">
-      <c r="A15" s="77">
+      <c r="A15" s="67">
         <v>4</v>
       </c>
       <c r="B15" s="25" t="s">
@@ -11566,22 +13206,22 @@
       </c>
     </row>
     <row r="16" ht="45" spans="1:7">
-      <c r="A16" s="77">
+      <c r="A16" s="67">
         <v>5</v>
       </c>
       <c r="B16" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="C16" s="74" t="s">
+      <c r="C16" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="D16" s="74" t="s">
+      <c r="D16" s="58" t="s">
         <v>132</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="F16" s="74" t="s">
+      <c r="F16" s="58" t="s">
         <v>132</v>
       </c>
       <c r="G16" s="20" t="s">
@@ -11589,7 +13229,7 @@
       </c>
     </row>
     <row r="17" ht="30" spans="1:7">
-      <c r="A17" s="77">
+      <c r="A17" s="67">
         <v>6</v>
       </c>
       <c r="B17" s="25" t="s">
@@ -11612,7 +13252,7 @@
       </c>
     </row>
     <row r="18" ht="30" spans="1:7">
-      <c r="A18" s="77">
+      <c r="A18" s="67">
         <v>7</v>
       </c>
       <c r="B18" s="25" t="s">
@@ -11635,7 +13275,7 @@
       </c>
     </row>
     <row r="19" ht="30" spans="1:7">
-      <c r="A19" s="77">
+      <c r="A19" s="67">
         <v>8</v>
       </c>
       <c r="B19" s="25" t="s">
@@ -11658,7 +13298,7 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="77">
+      <c r="A20" s="67">
         <v>9</v>
       </c>
       <c r="B20" s="25" t="s">
@@ -11681,7 +13321,7 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="77">
+      <c r="A21" s="67">
         <v>10</v>
       </c>
       <c r="B21" s="25" t="s">
@@ -11704,22 +13344,22 @@
       </c>
     </row>
     <row r="22" ht="45" spans="1:7">
-      <c r="A22" s="77">
+      <c r="A22" s="67">
         <v>11</v>
       </c>
       <c r="B22" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="C22" s="74" t="s">
+      <c r="C22" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="D22" s="74" t="s">
+      <c r="D22" s="58" t="s">
         <v>150</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="F22" s="74" t="s">
+      <c r="F22" s="58" t="s">
         <v>150</v>
       </c>
       <c r="G22" s="20" t="s">
@@ -11727,7 +13367,7 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="77">
+      <c r="A23" s="67">
         <v>12</v>
       </c>
       <c r="B23" s="25" t="s">
@@ -11750,7 +13390,7 @@
       </c>
     </row>
     <row r="24" ht="30" spans="1:7">
-      <c r="A24" s="77">
+      <c r="A24" s="67">
         <v>13</v>
       </c>
       <c r="B24" s="25" t="s">
@@ -11773,7 +13413,7 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="77">
+      <c r="A25" s="67">
         <v>14</v>
       </c>
       <c r="B25" s="25" t="s">
@@ -11796,7 +13436,7 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="77">
+      <c r="A26" s="67">
         <v>15</v>
       </c>
       <c r="B26" s="25" t="s">
@@ -11819,7 +13459,7 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="77">
+      <c r="A27" s="67">
         <v>16</v>
       </c>
       <c r="B27" s="25" t="s">
@@ -11842,7 +13482,7 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="77">
+      <c r="A28" s="67">
         <v>17</v>
       </c>
       <c r="B28" s="25" t="s">
@@ -11865,7 +13505,7 @@
       </c>
     </row>
     <row r="29" ht="45" spans="1:7">
-      <c r="A29" s="77">
+      <c r="A29" s="67">
         <v>18</v>
       </c>
       <c r="B29" s="25" t="s">
@@ -11888,7 +13528,7 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="77">
+      <c r="A30" s="67">
         <v>19</v>
       </c>
       <c r="B30" s="25" t="s">
@@ -11911,7 +13551,7 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="77">
+      <c r="A31" s="67">
         <v>20</v>
       </c>
       <c r="B31" s="25" t="s">
@@ -11934,7 +13574,7 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="77">
+      <c r="A32" s="67">
         <v>21</v>
       </c>
       <c r="B32" s="25" t="s">
@@ -11957,7 +13597,7 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="77">
+      <c r="A33" s="67">
         <v>22</v>
       </c>
       <c r="B33" s="25" t="s">
@@ -11980,7 +13620,7 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="77">
+      <c r="A34" s="67">
         <v>23</v>
       </c>
       <c r="B34" s="25" t="s">
@@ -12003,7 +13643,7 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="77">
+      <c r="A35" s="67">
         <v>24</v>
       </c>
       <c r="B35" s="25" t="s">
@@ -12026,22 +13666,22 @@
       </c>
     </row>
     <row r="36" ht="47" customHeight="1" spans="1:7">
-      <c r="A36" s="77">
+      <c r="A36" s="67">
         <v>25</v>
       </c>
       <c r="B36" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="C36" s="74" t="s">
+      <c r="C36" s="58" t="s">
         <v>191</v>
       </c>
-      <c r="D36" s="74" t="s">
+      <c r="D36" s="58" t="s">
         <v>192</v>
       </c>
       <c r="E36" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="F36" s="74" t="s">
+      <c r="F36" s="58" t="s">
         <v>192</v>
       </c>
       <c r="G36" s="20" t="s">
@@ -12049,7 +13689,7 @@
       </c>
     </row>
     <row r="37" ht="45" spans="1:7">
-      <c r="A37" s="77">
+      <c r="A37" s="67">
         <v>18</v>
       </c>
       <c r="B37" s="25" t="s">
@@ -12072,7 +13712,7 @@
       </c>
     </row>
     <row r="38" ht="30" spans="1:7">
-      <c r="A38" s="77">
+      <c r="A38" s="67">
         <v>27</v>
       </c>
       <c r="B38" s="25" t="s">
@@ -12095,7 +13735,7 @@
       </c>
     </row>
     <row r="39" ht="45" spans="1:7">
-      <c r="A39" s="77">
+      <c r="A39" s="67">
         <v>28</v>
       </c>
       <c r="B39" s="25" t="s">
@@ -12118,7 +13758,7 @@
       </c>
     </row>
     <row r="40" ht="30" spans="1:7">
-      <c r="A40" s="77">
+      <c r="A40" s="67">
         <v>29</v>
       </c>
       <c r="B40" s="25" t="s">
@@ -12141,23 +13781,23 @@
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="77"/>
+      <c r="A41" s="67"/>
     </row>
     <row r="42" s="25" customFormat="1" spans="1:5">
-      <c r="A42" s="77"/>
-      <c r="B42" s="84" t="s">
+      <c r="A42" s="67"/>
+      <c r="B42" s="98" t="s">
         <v>100</v>
       </c>
-      <c r="C42" s="84"/>
-      <c r="D42" s="58" t="s">
+      <c r="C42" s="98"/>
+      <c r="D42" s="83" t="s">
         <v>203</v>
       </c>
-      <c r="E42" s="85" t="s">
+      <c r="E42" s="99" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="43" s="63" customFormat="1" ht="30" spans="1:5">
-      <c r="A43" s="79"/>
+    <row r="43" s="48" customFormat="1" ht="30" spans="1:5">
+      <c r="A43" s="94"/>
       <c r="B43" s="28" t="s">
         <v>101</v>
       </c>
@@ -12171,8 +13811,8 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" s="63" customFormat="1" ht="30" spans="1:5">
-      <c r="A44" s="79"/>
+    <row r="44" s="48" customFormat="1" ht="30" spans="1:5">
+      <c r="A44" s="94"/>
       <c r="B44" s="28" t="s">
         <v>103</v>
       </c>
@@ -12186,8 +13826,8 @@
         <v>121</v>
       </c>
     </row>
-    <row r="45" s="63" customFormat="1" ht="30" spans="1:5">
-      <c r="A45" s="79"/>
+    <row r="45" s="48" customFormat="1" ht="30" spans="1:5">
+      <c r="A45" s="94"/>
       <c r="B45" s="28" t="s">
         <v>105</v>
       </c>
@@ -12201,8 +13841,8 @@
         <v>121</v>
       </c>
     </row>
-    <row r="46" s="63" customFormat="1" ht="30" spans="1:5">
-      <c r="A46" s="79"/>
+    <row r="46" s="48" customFormat="1" ht="30" spans="1:5">
+      <c r="A46" s="94"/>
       <c r="B46" s="28" t="s">
         <v>107</v>
       </c>
@@ -12217,16 +13857,16 @@
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="77"/>
+      <c r="A47" s="67"/>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="77"/>
+      <c r="A48" s="67"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="77"/>
+      <c r="A49" s="67"/>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="77"/>
+      <c r="A50" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -12246,8 +13886,8 @@
   </sheetPr>
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -12262,14 +13902,14 @@
   </cols>
   <sheetData>
     <row r="1" ht="87" customHeight="1" spans="1:7">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="49" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>211</v>
       </c>
       <c r="C1" s="4"/>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="49" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -12279,14 +13919,14 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="49" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="49" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="4"/>
@@ -12294,18 +13934,18 @@
       <c r="G2" s="4"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="65" t="s">
+      <c r="C4" s="100"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="50" t="s">
         <v>26</v>
       </c>
     </row>
@@ -12329,7 +13969,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="50" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -12342,50 +13982,50 @@
       <c r="G9"/>
     </row>
     <row r="10" s="25" customFormat="1" ht="21" customHeight="1" spans="1:6">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="108" t="s">
         <v>215</v>
       </c>
-      <c r="B10" s="89" t="s">
+      <c r="B10" s="103" t="s">
         <v>216</v>
       </c>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
     </row>
     <row r="11" s="25" customFormat="1" ht="15.75" spans="1:6">
-      <c r="A11" s="95"/>
-      <c r="B11" s="92" t="s">
+      <c r="A11" s="109"/>
+      <c r="B11" s="106" t="s">
         <v>217</v>
       </c>
-      <c r="C11" s="92" t="s">
+      <c r="C11" s="106" t="s">
         <v>218</v>
       </c>
-      <c r="D11" s="92" t="s">
+      <c r="D11" s="106" t="s">
         <v>219</v>
       </c>
-      <c r="E11" s="92" t="s">
+      <c r="E11" s="106" t="s">
         <v>220</v>
       </c>
-      <c r="F11" s="92" t="s">
+      <c r="F11" s="106" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="12" s="25" customFormat="1" spans="1:6">
-      <c r="A12" s="95"/>
-      <c r="B12" s="69" t="s">
+      <c r="A12" s="109"/>
+      <c r="B12" s="90" t="s">
         <v>222</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="90" t="s">
         <v>222</v>
       </c>
-      <c r="D12" s="69" t="s">
+      <c r="D12" s="90" t="s">
         <v>222</v>
       </c>
-      <c r="E12" s="69" t="s">
+      <c r="E12" s="90" t="s">
         <v>222</v>
       </c>
-      <c r="F12" s="69" t="s">
+      <c r="F12" s="90" t="s">
         <v>222</v>
       </c>
     </row>
@@ -12398,7 +14038,7 @@
       </c>
     </row>
     <row r="14" s="25" customFormat="1" ht="30" spans="1:6">
-      <c r="A14" s="93" t="s">
+      <c r="A14" s="107" t="s">
         <v>225</v>
       </c>
       <c r="B14" s="25" t="s">
@@ -12415,47 +14055,47 @@
       </c>
     </row>
     <row r="16" ht="30" spans="1:7">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="67" t="s">
+      <c r="B16" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="82" t="s">
+      <c r="C16" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="67" t="s">
+      <c r="D16" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="67" t="s">
+      <c r="E16" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="64" t="s">
+      <c r="F16" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="64" t="s">
+      <c r="G16" s="49" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="80"/>
-      <c r="B17" s="69" t="s">
+      <c r="A17" s="53"/>
+      <c r="B17" s="90" t="s">
         <v>228</v>
       </c>
-      <c r="C17" s="69"/>
+      <c r="C17" s="90"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="72"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="56"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="73">
+      <c r="A18" s="57">
         <v>1</v>
       </c>
-      <c r="B18" s="81" t="s">
+      <c r="B18" s="95" t="s">
         <v>229</v>
       </c>
-      <c r="C18" s="81"/>
+      <c r="C18" s="95"/>
       <c r="D18" s="4" t="s">
         <v>230</v>
       </c>
@@ -12464,7 +14104,7 @@
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="77">
+      <c r="A19" s="67">
         <v>2</v>
       </c>
       <c r="B19" s="25" t="s">
@@ -12475,7 +14115,7 @@
       </c>
     </row>
     <row r="20" ht="30" spans="1:4">
-      <c r="A20" s="77">
+      <c r="A20" s="67">
         <v>3</v>
       </c>
       <c r="B20" s="25" t="s">
@@ -12486,7 +14126,7 @@
       </c>
     </row>
     <row r="21" ht="30" spans="1:4">
-      <c r="A21" s="77">
+      <c r="A21" s="67">
         <v>4</v>
       </c>
       <c r="B21" s="25" t="s">
@@ -12497,18 +14137,18 @@
       </c>
     </row>
     <row r="22" ht="45" spans="1:4">
-      <c r="A22" s="77">
+      <c r="A22" s="67">
         <v>5</v>
       </c>
       <c r="B22" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="D22" s="74" t="s">
+      <c r="D22" s="58" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="23" ht="30" spans="1:4">
-      <c r="A23" s="77">
+      <c r="A23" s="67">
         <v>6</v>
       </c>
       <c r="B23" s="25" t="s">
@@ -12519,7 +14159,7 @@
       </c>
     </row>
     <row r="24" ht="60" spans="1:4">
-      <c r="A24" s="77">
+      <c r="A24" s="67">
         <v>7</v>
       </c>
       <c r="B24" s="25" t="s">
@@ -12530,7 +14170,7 @@
       </c>
     </row>
     <row r="25" ht="30" spans="1:4">
-      <c r="A25" s="77">
+      <c r="A25" s="67">
         <v>8</v>
       </c>
       <c r="B25" s="25" t="s">
@@ -12541,7 +14181,7 @@
       </c>
     </row>
     <row r="26" ht="30" spans="1:4">
-      <c r="A26" s="77">
+      <c r="A26" s="67">
         <v>9</v>
       </c>
       <c r="B26" s="25" t="s">
@@ -12552,7 +14192,7 @@
       </c>
     </row>
     <row r="27" ht="30" spans="1:4">
-      <c r="A27" s="77">
+      <c r="A27" s="67">
         <v>10</v>
       </c>
       <c r="B27" s="25" t="s">
@@ -12563,18 +14203,18 @@
       </c>
     </row>
     <row r="28" ht="45" spans="1:4">
-      <c r="A28" s="77">
+      <c r="A28" s="67">
         <v>11</v>
       </c>
       <c r="B28" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="D28" s="74" t="s">
+      <c r="D28" s="58" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="29" ht="45" spans="1:4">
-      <c r="A29" s="77">
+      <c r="A29" s="67">
         <v>12</v>
       </c>
       <c r="B29" s="25" t="s">
@@ -12585,7 +14225,7 @@
       </c>
     </row>
     <row r="30" ht="30" spans="1:4">
-      <c r="A30" s="77">
+      <c r="A30" s="67">
         <v>13</v>
       </c>
       <c r="B30" s="25" t="s">
@@ -12596,7 +14236,7 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="77">
+      <c r="A31" s="67">
         <v>14</v>
       </c>
       <c r="B31" s="25" t="s">
@@ -12607,7 +14247,7 @@
       </c>
     </row>
     <row r="32" ht="45" spans="1:4">
-      <c r="A32" s="77">
+      <c r="A32" s="67">
         <v>15</v>
       </c>
       <c r="B32" s="25" t="s">
@@ -12618,7 +14258,7 @@
       </c>
     </row>
     <row r="33" ht="30" spans="1:4">
-      <c r="A33" s="77">
+      <c r="A33" s="67">
         <v>16</v>
       </c>
       <c r="B33" s="25" t="s">
@@ -12629,7 +14269,7 @@
       </c>
     </row>
     <row r="34" ht="45" spans="1:4">
-      <c r="A34" s="77">
+      <c r="A34" s="67">
         <v>17</v>
       </c>
       <c r="B34" s="25" t="s">
@@ -12640,7 +14280,7 @@
       </c>
     </row>
     <row r="35" ht="30" spans="1:4">
-      <c r="A35" s="77">
+      <c r="A35" s="67">
         <v>18</v>
       </c>
       <c r="B35" s="25" t="s">
@@ -12651,7 +14291,7 @@
       </c>
     </row>
     <row r="36" ht="30" spans="1:4">
-      <c r="A36" s="77">
+      <c r="A36" s="67">
         <v>19</v>
       </c>
       <c r="B36" s="25" t="s">
@@ -12662,7 +14302,7 @@
       </c>
     </row>
     <row r="37" ht="30" spans="1:4">
-      <c r="A37" s="77">
+      <c r="A37" s="67">
         <v>20</v>
       </c>
       <c r="B37" s="25" t="s">
@@ -12673,7 +14313,7 @@
       </c>
     </row>
     <row r="38" ht="30" spans="1:4">
-      <c r="A38" s="77">
+      <c r="A38" s="67">
         <v>21</v>
       </c>
       <c r="B38" s="25" t="s">
@@ -12684,7 +14324,7 @@
       </c>
     </row>
     <row r="39" ht="30" spans="1:4">
-      <c r="A39" s="77">
+      <c r="A39" s="67">
         <v>22</v>
       </c>
       <c r="B39" s="25" t="s">
@@ -12695,64 +14335,64 @@
       </c>
     </row>
     <row r="41" s="25" customFormat="1" spans="1:4">
-      <c r="A41" s="77"/>
-      <c r="B41" s="84" t="s">
+      <c r="A41" s="67"/>
+      <c r="B41" s="98" t="s">
         <v>100</v>
       </c>
-      <c r="C41" s="84"/>
-      <c r="D41" s="84"/>
+      <c r="C41" s="98"/>
+      <c r="D41" s="98"/>
     </row>
     <row r="42" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A42" s="79"/>
+      <c r="A42" s="94"/>
       <c r="B42" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="C42" s="87"/>
+      <c r="C42" s="101"/>
       <c r="D42" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="E42" s="63"/>
-      <c r="F42" s="63"/>
-      <c r="G42" s="63"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
     </row>
     <row r="43" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A43" s="79"/>
+      <c r="A43" s="94"/>
       <c r="B43" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="C43" s="87"/>
+      <c r="C43" s="101"/>
       <c r="D43" s="28" t="s">
         <v>271</v>
       </c>
-      <c r="E43" s="63"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="63"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="48"/>
     </row>
     <row r="44" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A44" s="79"/>
+      <c r="A44" s="94"/>
       <c r="B44" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="C44" s="87"/>
+      <c r="C44" s="101"/>
       <c r="D44" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="E44" s="63"/>
-      <c r="F44" s="63"/>
-      <c r="G44" s="63"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="48"/>
     </row>
     <row r="45" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A45" s="79"/>
+      <c r="A45" s="94"/>
       <c r="B45" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="C45" s="87"/>
+      <c r="C45" s="101"/>
       <c r="D45" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="E45" s="63"/>
-      <c r="F45" s="63"/>
-      <c r="G45" s="63"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -12772,13 +14412,13 @@
   <sheetPr/>
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="20.2857142857143" style="77" customWidth="1"/>
+    <col min="1" max="1" width="20.2857142857143" style="67" customWidth="1"/>
     <col min="2" max="2" width="52.1428571428571" style="25" customWidth="1"/>
     <col min="3" max="3" width="69.2857142857143" style="25" customWidth="1"/>
     <col min="4" max="4" width="64.8571428571429" style="25" customWidth="1"/>
@@ -12790,13 +14430,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="68" customHeight="1" spans="1:8">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="49" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="49" t="s">
         <v>19</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -12808,13 +14448,13 @@
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="49" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="49" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="4"/>
@@ -12824,7 +14464,7 @@
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="49" t="s">
         <v>111</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -12832,14 +14472,14 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="65" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="50" t="s">
         <v>26</v>
       </c>
     </row>
@@ -12863,7 +14503,7 @@
       <c r="A7" s="25"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="50" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -12874,49 +14514,49 @@
     <row r="9" spans="1:1">
       <c r="A9" s="25"/>
     </row>
-    <row r="10" s="77" customFormat="1" ht="30" spans="1:8">
-      <c r="A10" s="82" t="s">
+    <row r="10" s="67" customFormat="1" ht="30" spans="1:8">
+      <c r="A10" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="82" t="s">
+      <c r="C10" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="82" t="s">
+      <c r="D10" s="96" t="s">
         <v>115</v>
       </c>
-      <c r="E10" s="83" t="s">
+      <c r="E10" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="82" t="s">
+      <c r="F10" s="96" t="s">
         <v>116</v>
       </c>
-      <c r="G10" s="83" t="s">
+      <c r="G10" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="83" t="s">
+      <c r="H10" s="97" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="80"/>
-      <c r="B11" s="69" t="s">
+      <c r="A11" s="53"/>
+      <c r="B11" s="90" t="s">
         <v>275</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="72"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="56"/>
     </row>
     <row r="12" ht="30" spans="1:8">
-      <c r="A12" s="73">
+      <c r="A12" s="57">
         <v>1</v>
       </c>
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="95" t="s">
         <v>276</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -12937,7 +14577,7 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="77">
+      <c r="A13" s="67">
         <v>2</v>
       </c>
       <c r="B13" s="25" t="s">
@@ -12960,7 +14600,7 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="77">
+      <c r="A14" s="67">
         <v>3</v>
       </c>
       <c r="B14" s="25" t="s">
@@ -12983,7 +14623,7 @@
       </c>
     </row>
     <row r="15" ht="30" spans="1:7">
-      <c r="A15" s="77">
+      <c r="A15" s="67">
         <v>4</v>
       </c>
       <c r="B15" s="25" t="s">
@@ -13006,22 +14646,22 @@
       </c>
     </row>
     <row r="16" ht="45" spans="1:7">
-      <c r="A16" s="77">
+      <c r="A16" s="67">
         <v>5</v>
       </c>
       <c r="B16" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="C16" s="74" t="s">
+      <c r="C16" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="D16" s="74" t="s">
+      <c r="D16" s="58" t="s">
         <v>287</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="F16" s="74" t="s">
+      <c r="F16" s="58" t="s">
         <v>287</v>
       </c>
       <c r="G16" s="20" t="s">
@@ -13029,7 +14669,7 @@
       </c>
     </row>
     <row r="17" ht="30" spans="1:7">
-      <c r="A17" s="77">
+      <c r="A17" s="67">
         <v>6</v>
       </c>
       <c r="B17" s="25" t="s">
@@ -13052,7 +14692,7 @@
       </c>
     </row>
     <row r="18" ht="30" spans="1:7">
-      <c r="A18" s="77">
+      <c r="A18" s="67">
         <v>7</v>
       </c>
       <c r="B18" s="25" t="s">
@@ -13075,22 +14715,22 @@
       </c>
     </row>
     <row r="19" ht="45" spans="1:7">
-      <c r="A19" s="77">
+      <c r="A19" s="67">
         <v>8</v>
       </c>
       <c r="B19" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="C19" s="74" t="s">
+      <c r="C19" s="58" t="s">
         <v>295</v>
       </c>
-      <c r="D19" s="74" t="s">
+      <c r="D19" s="58" t="s">
         <v>296</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="F19" s="74" t="s">
+      <c r="F19" s="58" t="s">
         <v>296</v>
       </c>
       <c r="G19" s="20" t="s">
@@ -13098,7 +14738,7 @@
       </c>
     </row>
     <row r="20" ht="30" spans="1:7">
-      <c r="A20" s="77">
+      <c r="A20" s="67">
         <v>9</v>
       </c>
       <c r="B20" s="25" t="s">
@@ -13121,22 +14761,22 @@
       </c>
     </row>
     <row r="21" ht="45" spans="1:7">
-      <c r="A21" s="77">
+      <c r="A21" s="67">
         <v>10</v>
       </c>
       <c r="B21" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C21" s="74" t="s">
+      <c r="C21" s="58" t="s">
         <v>301</v>
       </c>
-      <c r="D21" s="74" t="s">
+      <c r="D21" s="58" t="s">
         <v>302</v>
       </c>
       <c r="E21" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="F21" s="74" t="s">
+      <c r="F21" s="58" t="s">
         <v>302</v>
       </c>
       <c r="G21" s="20" t="s">
@@ -13144,7 +14784,7 @@
       </c>
     </row>
     <row r="22" ht="30" spans="1:7">
-      <c r="A22" s="77">
+      <c r="A22" s="67">
         <v>11</v>
       </c>
       <c r="B22" s="25" t="s">
@@ -13167,7 +14807,7 @@
       </c>
     </row>
     <row r="23" ht="45" spans="1:7">
-      <c r="A23" s="77">
+      <c r="A23" s="67">
         <v>12</v>
       </c>
       <c r="B23" s="25" t="s">
@@ -13190,7 +14830,7 @@
       </c>
     </row>
     <row r="24" ht="45" spans="1:7">
-      <c r="A24" s="77">
+      <c r="A24" s="67">
         <v>13</v>
       </c>
       <c r="B24" s="25" t="s">
@@ -13213,7 +14853,7 @@
       </c>
     </row>
     <row r="25" ht="75" spans="1:7">
-      <c r="A25" s="77">
+      <c r="A25" s="67">
         <v>14</v>
       </c>
       <c r="B25" s="25" t="s">
@@ -13236,7 +14876,7 @@
       </c>
     </row>
     <row r="26" ht="30" spans="1:7">
-      <c r="A26" s="77">
+      <c r="A26" s="67">
         <v>15</v>
       </c>
       <c r="B26" s="25" t="s">
@@ -13259,7 +14899,7 @@
       </c>
     </row>
     <row r="27" ht="60" spans="1:7">
-      <c r="A27" s="77">
+      <c r="A27" s="67">
         <v>16</v>
       </c>
       <c r="B27" s="25" t="s">
@@ -13282,7 +14922,7 @@
       </c>
     </row>
     <row r="28" ht="30" spans="1:7">
-      <c r="A28" s="77">
+      <c r="A28" s="67">
         <v>17</v>
       </c>
       <c r="B28" s="25" t="s">
@@ -13305,7 +14945,7 @@
       </c>
     </row>
     <row r="29" ht="45" spans="1:7">
-      <c r="A29" s="77">
+      <c r="A29" s="67">
         <v>18</v>
       </c>
       <c r="B29" s="25" t="s">
@@ -13328,7 +14968,7 @@
       </c>
     </row>
     <row r="30" ht="30" spans="1:7">
-      <c r="A30" s="77">
+      <c r="A30" s="67">
         <v>19</v>
       </c>
       <c r="B30" s="25" t="s">
@@ -13351,7 +14991,7 @@
       </c>
     </row>
     <row r="31" ht="60" spans="1:7">
-      <c r="A31" s="77">
+      <c r="A31" s="67">
         <v>20</v>
       </c>
       <c r="B31" s="25" t="s">
@@ -13374,7 +15014,7 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="77">
+      <c r="A32" s="67">
         <v>21</v>
       </c>
       <c r="B32" s="25" t="s">
@@ -13397,7 +15037,7 @@
       </c>
     </row>
     <row r="33" ht="30" spans="1:7">
-      <c r="A33" s="77">
+      <c r="A33" s="67">
         <v>22</v>
       </c>
       <c r="B33" s="25" t="s">
@@ -13420,7 +15060,7 @@
       </c>
     </row>
     <row r="34" ht="30" spans="1:7">
-      <c r="A34" s="77">
+      <c r="A34" s="67">
         <v>23</v>
       </c>
       <c r="B34" s="25" t="s">
@@ -13443,7 +15083,7 @@
       </c>
     </row>
     <row r="35" ht="30" spans="1:7">
-      <c r="A35" s="77">
+      <c r="A35" s="67">
         <v>24</v>
       </c>
       <c r="B35" s="25" t="s">
@@ -13466,7 +15106,7 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="77">
+      <c r="A36" s="67">
         <v>25</v>
       </c>
       <c r="B36" s="25" t="s">
@@ -13489,7 +15129,7 @@
       </c>
     </row>
     <row r="37" ht="30" spans="1:7">
-      <c r="A37" s="77">
+      <c r="A37" s="67">
         <v>26</v>
       </c>
       <c r="B37" s="25" t="s">
@@ -13512,7 +15152,7 @@
       </c>
     </row>
     <row r="38" ht="45" spans="1:7">
-      <c r="A38" s="77">
+      <c r="A38" s="67">
         <v>27</v>
       </c>
       <c r="B38" s="25" t="s">
@@ -13535,7 +15175,7 @@
       </c>
     </row>
     <row r="39" ht="30" spans="1:7">
-      <c r="A39" s="77">
+      <c r="A39" s="67">
         <v>28</v>
       </c>
       <c r="B39" s="25" t="s">
@@ -13558,7 +15198,7 @@
       </c>
     </row>
     <row r="40" ht="30" spans="1:7">
-      <c r="A40" s="77">
+      <c r="A40" s="67">
         <v>29</v>
       </c>
       <c r="B40" s="25" t="s">
@@ -13581,7 +15221,7 @@
       </c>
     </row>
     <row r="41" ht="45" spans="1:7">
-      <c r="A41" s="77">
+      <c r="A41" s="67">
         <v>30</v>
       </c>
       <c r="B41" s="25" t="s">
@@ -13604,7 +15244,7 @@
       </c>
     </row>
     <row r="42" ht="30" spans="1:7">
-      <c r="A42" s="77">
+      <c r="A42" s="67">
         <v>31</v>
       </c>
       <c r="B42" s="25" t="s">
@@ -13627,7 +15267,7 @@
       </c>
     </row>
     <row r="43" ht="30" spans="1:7">
-      <c r="A43" s="77">
+      <c r="A43" s="67">
         <v>32</v>
       </c>
       <c r="B43" s="25" t="s">
@@ -13650,7 +15290,7 @@
       </c>
     </row>
     <row r="44" ht="30" spans="1:7">
-      <c r="A44" s="77">
+      <c r="A44" s="67">
         <v>33</v>
       </c>
       <c r="B44" s="25" t="s">
@@ -13673,20 +15313,20 @@
       </c>
     </row>
     <row r="46" s="25" customFormat="1" spans="1:5">
-      <c r="A46" s="77"/>
-      <c r="B46" s="84" t="s">
+      <c r="A46" s="67"/>
+      <c r="B46" s="98" t="s">
         <v>100</v>
       </c>
-      <c r="C46" s="84"/>
-      <c r="D46" s="58" t="s">
+      <c r="C46" s="98"/>
+      <c r="D46" s="83" t="s">
         <v>203</v>
       </c>
-      <c r="E46" s="85" t="s">
+      <c r="E46" s="99" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="47" s="63" customFormat="1" ht="30" spans="1:5">
-      <c r="A47" s="79"/>
+    <row r="47" s="48" customFormat="1" ht="30" spans="1:5">
+      <c r="A47" s="94"/>
       <c r="B47" s="28" t="s">
         <v>101</v>
       </c>
@@ -13700,8 +15340,8 @@
         <v>121</v>
       </c>
     </row>
-    <row r="48" s="63" customFormat="1" ht="30" spans="1:5">
-      <c r="A48" s="79"/>
+    <row r="48" s="48" customFormat="1" ht="30" spans="1:5">
+      <c r="A48" s="94"/>
       <c r="B48" s="28" t="s">
         <v>103</v>
       </c>
@@ -13715,8 +15355,8 @@
         <v>121</v>
       </c>
     </row>
-    <row r="49" s="63" customFormat="1" ht="30" spans="1:5">
-      <c r="A49" s="79"/>
+    <row r="49" s="48" customFormat="1" ht="30" spans="1:5">
+      <c r="A49" s="94"/>
       <c r="B49" s="28" t="s">
         <v>105</v>
       </c>
@@ -13730,8 +15370,8 @@
         <v>121</v>
       </c>
     </row>
-    <row r="50" s="63" customFormat="1" ht="30" spans="1:5">
-      <c r="A50" s="79"/>
+    <row r="50" s="48" customFormat="1" ht="30" spans="1:5">
+      <c r="A50" s="94"/>
       <c r="B50" s="28" t="s">
         <v>107</v>
       </c>
@@ -13780,14 +15420,14 @@
   </cols>
   <sheetData>
     <row r="1" s="25" customFormat="1" spans="1:7">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="49" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>372</v>
       </c>
       <c r="C1" s="4"/>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="49" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -13797,14 +15437,14 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" s="25" customFormat="1" spans="1:7">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="49" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="49" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="4"/>
@@ -13812,18 +15452,18 @@
       <c r="G2" s="4"/>
     </row>
     <row r="4" s="25" customFormat="1" spans="1:6">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="65" t="s">
+      <c r="C4" s="100"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="50" t="s">
         <v>26</v>
       </c>
     </row>
@@ -13847,7 +15487,7 @@
       </c>
     </row>
     <row r="8" s="25" customFormat="1" spans="1:4">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="50" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -13856,48 +15496,48 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="10" s="77" customFormat="1" ht="30" spans="1:7">
-      <c r="A10" s="82" t="s">
+    <row r="10" s="67" customFormat="1" ht="30" spans="1:7">
+      <c r="A10" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="82" t="s">
+      <c r="C10" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="82" t="s">
+      <c r="D10" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="82" t="s">
+      <c r="E10" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="83" t="s">
+      <c r="F10" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="83" t="s">
+      <c r="G10" s="97" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" s="25" customFormat="1" spans="1:7">
-      <c r="A11" s="80"/>
-      <c r="B11" s="69" t="s">
+      <c r="A11" s="53"/>
+      <c r="B11" s="90" t="s">
         <v>375</v>
       </c>
-      <c r="C11" s="69"/>
+      <c r="C11" s="90"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="72"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="56"/>
     </row>
     <row r="12" s="25" customFormat="1" spans="1:7">
-      <c r="A12" s="73">
+      <c r="A12" s="57">
         <v>1</v>
       </c>
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="95" t="s">
         <v>376</v>
       </c>
-      <c r="C12" s="81"/>
+      <c r="C12" s="95"/>
       <c r="D12" s="4" t="s">
         <v>377</v>
       </c>
@@ -13906,7 +15546,7 @@
       <c r="G12" s="4"/>
     </row>
     <row r="13" s="25" customFormat="1" spans="1:4">
-      <c r="A13" s="77">
+      <c r="A13" s="67">
         <v>2</v>
       </c>
       <c r="B13" s="25" t="s">
@@ -13917,7 +15557,7 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="77">
+      <c r="A14" s="67">
         <v>3</v>
       </c>
       <c r="B14" s="25" t="s">
@@ -13928,7 +15568,7 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="77">
+      <c r="A15" s="67">
         <v>4</v>
       </c>
       <c r="B15" s="25" t="s">
@@ -13939,7 +15579,7 @@
       </c>
     </row>
     <row r="16" ht="30" spans="1:4">
-      <c r="A16" s="77">
+      <c r="A16" s="67">
         <v>5</v>
       </c>
       <c r="B16" s="25" t="s">
@@ -13950,7 +15590,7 @@
       </c>
     </row>
     <row r="17" ht="30" spans="1:4">
-      <c r="A17" s="77">
+      <c r="A17" s="67">
         <v>6</v>
       </c>
       <c r="B17" s="25" t="s">
@@ -13961,7 +15601,7 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="77">
+      <c r="A18" s="67">
         <v>7</v>
       </c>
       <c r="B18" s="25" t="s">
@@ -13972,18 +15612,18 @@
       </c>
     </row>
     <row r="19" ht="45" spans="1:4">
-      <c r="A19" s="77">
+      <c r="A19" s="67">
         <v>8</v>
       </c>
       <c r="B19" s="25" t="s">
         <v>388</v>
       </c>
-      <c r="D19" s="74" t="s">
+      <c r="D19" s="58" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="20" ht="30" spans="1:4">
-      <c r="A20" s="77">
+      <c r="A20" s="67">
         <v>9</v>
       </c>
       <c r="B20" s="25" t="s">
@@ -13994,7 +15634,7 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="77">
+      <c r="A21" s="67">
         <v>10</v>
       </c>
       <c r="B21" s="25" t="s">
@@ -14005,7 +15645,7 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="77">
+      <c r="A22" s="67">
         <v>11</v>
       </c>
       <c r="B22" s="25" t="s">
@@ -14016,7 +15656,7 @@
       </c>
     </row>
     <row r="23" ht="45" spans="1:4">
-      <c r="A23" s="77">
+      <c r="A23" s="67">
         <v>12</v>
       </c>
       <c r="B23" s="25" t="s">
@@ -14027,7 +15667,7 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="77">
+      <c r="A24" s="67">
         <v>13</v>
       </c>
       <c r="B24" s="25" t="s">
@@ -14038,7 +15678,7 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="77">
+      <c r="A25" s="67">
         <v>14</v>
       </c>
       <c r="B25" s="25" t="s">
@@ -14049,7 +15689,7 @@
       </c>
     </row>
     <row r="26" ht="30" spans="1:4">
-      <c r="A26" s="77">
+      <c r="A26" s="67">
         <v>15</v>
       </c>
       <c r="B26" s="25" t="s">
@@ -14060,64 +15700,64 @@
       </c>
     </row>
     <row r="28" s="25" customFormat="1" spans="1:4">
-      <c r="A28" s="77"/>
-      <c r="B28" s="84" t="s">
+      <c r="A28" s="67"/>
+      <c r="B28" s="98" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="84"/>
-      <c r="D28" s="84"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="98"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A29" s="79"/>
+      <c r="A29" s="94"/>
       <c r="B29" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="C29" s="87"/>
+      <c r="C29" s="101"/>
       <c r="D29" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
     </row>
     <row r="30" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A30" s="79"/>
+      <c r="A30" s="94"/>
       <c r="B30" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="C30" s="87"/>
+      <c r="C30" s="101"/>
       <c r="D30" s="28" t="s">
         <v>403</v>
       </c>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
     </row>
     <row r="31" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A31" s="79"/>
+      <c r="A31" s="94"/>
       <c r="B31" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="C31" s="87"/>
+      <c r="C31" s="101"/>
       <c r="D31" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
     </row>
     <row r="32" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A32" s="79"/>
+      <c r="A32" s="94"/>
       <c r="B32" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="87"/>
+      <c r="C32" s="101"/>
       <c r="D32" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -14137,7 +15777,7 @@
   </sheetPr>
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -14154,14 +15794,14 @@
   </cols>
   <sheetData>
     <row r="1" s="25" customFormat="1" spans="1:7">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="49" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>404</v>
       </c>
       <c r="C1" s="4"/>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="49" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -14171,14 +15811,14 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" s="25" customFormat="1" spans="1:7">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="49" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="49" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="4"/>
@@ -14186,18 +15826,18 @@
       <c r="G2" s="4"/>
     </row>
     <row r="4" s="25" customFormat="1" spans="1:6">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="65" t="s">
+      <c r="C4" s="100"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="50" t="s">
         <v>26</v>
       </c>
     </row>
@@ -14221,7 +15861,7 @@
       </c>
     </row>
     <row r="8" s="25" customFormat="1" spans="1:4">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="50" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -14231,50 +15871,50 @@
       <c r="D8" s="4"/>
     </row>
     <row r="10" s="25" customFormat="1" ht="21" customHeight="1" spans="1:6">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="108" t="s">
         <v>215</v>
       </c>
-      <c r="B10" s="89" t="s">
+      <c r="B10" s="103" t="s">
         <v>216</v>
       </c>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
     </row>
     <row r="11" s="25" customFormat="1" ht="15.75" spans="1:6">
-      <c r="A11" s="95"/>
-      <c r="B11" s="96" t="s">
+      <c r="A11" s="109"/>
+      <c r="B11" s="110" t="s">
         <v>217</v>
       </c>
-      <c r="C11" s="96" t="s">
+      <c r="C11" s="110" t="s">
         <v>218</v>
       </c>
-      <c r="D11" s="96" t="s">
+      <c r="D11" s="110" t="s">
         <v>219</v>
       </c>
-      <c r="E11" s="96" t="s">
+      <c r="E11" s="110" t="s">
         <v>220</v>
       </c>
-      <c r="F11" s="96" t="s">
+      <c r="F11" s="110" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="12" s="25" customFormat="1" spans="1:6">
-      <c r="A12" s="95"/>
-      <c r="B12" s="69" t="s">
+      <c r="A12" s="109"/>
+      <c r="B12" s="90" t="s">
         <v>222</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="90" t="s">
         <v>222</v>
       </c>
-      <c r="D12" s="69" t="s">
+      <c r="D12" s="90" t="s">
         <v>222</v>
       </c>
-      <c r="E12" s="69" t="s">
+      <c r="E12" s="90" t="s">
         <v>222</v>
       </c>
-      <c r="F12" s="69" t="s">
+      <c r="F12" s="90" t="s">
         <v>222</v>
       </c>
     </row>
@@ -14287,7 +15927,7 @@
       </c>
     </row>
     <row r="14" ht="30" spans="1:6">
-      <c r="A14" s="93" t="s">
+      <c r="A14" s="107" t="s">
         <v>408</v>
       </c>
       <c r="B14" s="25" t="s">
@@ -14312,48 +15952,48 @@
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
     </row>
-    <row r="16" s="77" customFormat="1" spans="1:7">
-      <c r="A16" s="82" t="s">
+    <row r="16" s="67" customFormat="1" spans="1:7">
+      <c r="A16" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="82" t="s">
+      <c r="B16" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="82" t="s">
+      <c r="C16" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="82" t="s">
+      <c r="D16" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="82" t="s">
+      <c r="E16" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="83" t="s">
+      <c r="F16" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="83" t="s">
+      <c r="G16" s="97" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" s="25" customFormat="1" spans="1:7">
-      <c r="A17" s="80"/>
-      <c r="B17" s="69" t="s">
+      <c r="A17" s="53"/>
+      <c r="B17" s="90" t="s">
         <v>412</v>
       </c>
-      <c r="C17" s="69"/>
+      <c r="C17" s="90"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="72"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="56"/>
     </row>
     <row r="18" s="25" customFormat="1" spans="1:7">
-      <c r="A18" s="73">
+      <c r="A18" s="57">
         <v>1</v>
       </c>
-      <c r="B18" s="81" t="s">
+      <c r="B18" s="95" t="s">
         <v>413</v>
       </c>
-      <c r="C18" s="81"/>
+      <c r="C18" s="95"/>
       <c r="D18" s="4" t="s">
         <v>414</v>
       </c>
@@ -14362,7 +16002,7 @@
       <c r="G18" s="4"/>
     </row>
     <row r="19" s="25" customFormat="1" spans="1:4">
-      <c r="A19" s="77">
+      <c r="A19" s="67">
         <v>2</v>
       </c>
       <c r="B19" s="25" t="s">
@@ -14373,7 +16013,7 @@
       </c>
     </row>
     <row r="20" ht="45" spans="1:4">
-      <c r="A20" s="77">
+      <c r="A20" s="67">
         <v>3</v>
       </c>
       <c r="B20" s="25" t="s">
@@ -14384,7 +16024,7 @@
       </c>
     </row>
     <row r="21" ht="30" spans="1:4">
-      <c r="A21" s="77">
+      <c r="A21" s="67">
         <v>4</v>
       </c>
       <c r="B21" s="25" t="s">
@@ -14395,7 +16035,7 @@
       </c>
     </row>
     <row r="22" ht="30" spans="1:4">
-      <c r="A22" s="77">
+      <c r="A22" s="67">
         <v>5</v>
       </c>
       <c r="B22" s="25" t="s">
@@ -14406,7 +16046,7 @@
       </c>
     </row>
     <row r="23" ht="45" spans="1:4">
-      <c r="A23" s="77">
+      <c r="A23" s="67">
         <v>6</v>
       </c>
       <c r="B23" s="25" t="s">
@@ -14417,7 +16057,7 @@
       </c>
     </row>
     <row r="24" ht="30" spans="1:4">
-      <c r="A24" s="77">
+      <c r="A24" s="67">
         <v>7</v>
       </c>
       <c r="B24" s="25" t="s">
@@ -14428,18 +16068,18 @@
       </c>
     </row>
     <row r="25" ht="45" spans="1:4">
-      <c r="A25" s="77">
+      <c r="A25" s="67">
         <v>8</v>
       </c>
       <c r="B25" s="25" t="s">
         <v>426</v>
       </c>
-      <c r="D25" s="74" t="s">
+      <c r="D25" s="58" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="26" ht="30" spans="1:4">
-      <c r="A26" s="77">
+      <c r="A26" s="67">
         <v>9</v>
       </c>
       <c r="B26" s="25" t="s">
@@ -14450,7 +16090,7 @@
       </c>
     </row>
     <row r="27" ht="45" spans="1:4">
-      <c r="A27" s="77">
+      <c r="A27" s="67">
         <v>10</v>
       </c>
       <c r="B27" s="25" t="s">
@@ -14461,7 +16101,7 @@
       </c>
     </row>
     <row r="28" ht="45" spans="1:4">
-      <c r="A28" s="77">
+      <c r="A28" s="67">
         <v>11</v>
       </c>
       <c r="B28" s="25" t="s">
@@ -14472,7 +16112,7 @@
       </c>
     </row>
     <row r="29" ht="75" spans="1:4">
-      <c r="A29" s="77">
+      <c r="A29" s="67">
         <v>12</v>
       </c>
       <c r="B29" s="25" t="s">
@@ -14483,7 +16123,7 @@
       </c>
     </row>
     <row r="30" ht="45" spans="1:4">
-      <c r="A30" s="77">
+      <c r="A30" s="67">
         <v>13</v>
       </c>
       <c r="B30" s="25" t="s">
@@ -14494,7 +16134,7 @@
       </c>
     </row>
     <row r="31" ht="60" spans="1:4">
-      <c r="A31" s="77">
+      <c r="A31" s="67">
         <v>14</v>
       </c>
       <c r="B31" s="25" t="s">
@@ -14505,7 +16145,7 @@
       </c>
     </row>
     <row r="32" ht="75" spans="1:4">
-      <c r="A32" s="77">
+      <c r="A32" s="67">
         <v>16</v>
       </c>
       <c r="B32" s="25" t="s">
@@ -14516,7 +16156,7 @@
       </c>
     </row>
     <row r="33" ht="30" spans="1:4">
-      <c r="A33" s="77">
+      <c r="A33" s="67">
         <v>17</v>
       </c>
       <c r="B33" s="25" t="s">
@@ -14527,7 +16167,7 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="77">
+      <c r="A34" s="67">
         <v>18</v>
       </c>
       <c r="B34" s="25" t="s">
@@ -14538,7 +16178,7 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="77">
+      <c r="A35" s="67">
         <v>19</v>
       </c>
       <c r="B35" s="25" t="s">
@@ -14549,7 +16189,7 @@
       </c>
     </row>
     <row r="36" ht="45" spans="1:4">
-      <c r="A36" s="77">
+      <c r="A36" s="67">
         <v>20</v>
       </c>
       <c r="B36" s="25" t="s">
@@ -14560,7 +16200,7 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="77">
+      <c r="A37" s="67">
         <v>21</v>
       </c>
       <c r="B37" s="25" t="s">
@@ -14571,7 +16211,7 @@
       </c>
     </row>
     <row r="38" ht="30" spans="1:4">
-      <c r="A38" s="77">
+      <c r="A38" s="67">
         <v>22</v>
       </c>
       <c r="B38" s="25" t="s">
@@ -14582,7 +16222,7 @@
       </c>
     </row>
     <row r="39" ht="30" spans="1:4">
-      <c r="A39" s="77">
+      <c r="A39" s="67">
         <v>23</v>
       </c>
       <c r="B39" s="25" t="s">
@@ -14593,7 +16233,7 @@
       </c>
     </row>
     <row r="40" ht="30" spans="1:4">
-      <c r="A40" s="77">
+      <c r="A40" s="67">
         <v>24</v>
       </c>
       <c r="B40" s="25" t="s">
@@ -14604,7 +16244,7 @@
       </c>
     </row>
     <row r="41" ht="45" spans="1:4">
-      <c r="A41" s="77">
+      <c r="A41" s="67">
         <v>25</v>
       </c>
       <c r="B41" s="25" t="s">
@@ -14615,7 +16255,7 @@
       </c>
     </row>
     <row r="42" ht="30" spans="1:4">
-      <c r="A42" s="77">
+      <c r="A42" s="67">
         <v>26</v>
       </c>
       <c r="B42" s="25" t="s">
@@ -14626,7 +16266,7 @@
       </c>
     </row>
     <row r="43" ht="45" spans="1:4">
-      <c r="A43" s="77">
+      <c r="A43" s="67">
         <v>27</v>
       </c>
       <c r="B43" s="25" t="s">
@@ -14637,7 +16277,7 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="77">
+      <c r="A44" s="67">
         <v>28</v>
       </c>
       <c r="B44" s="25" t="s">
@@ -14648,7 +16288,7 @@
       </c>
     </row>
     <row r="45" ht="30" spans="1:4">
-      <c r="A45" s="77">
+      <c r="A45" s="67">
         <v>29</v>
       </c>
       <c r="B45" s="25" t="s">
@@ -14659,7 +16299,7 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="77">
+      <c r="A46" s="67">
         <v>30</v>
       </c>
       <c r="B46" s="25" t="s">
@@ -14670,7 +16310,7 @@
       </c>
     </row>
     <row r="47" ht="30" spans="1:4">
-      <c r="A47" s="77">
+      <c r="A47" s="67">
         <v>31</v>
       </c>
       <c r="B47" s="25" t="s">
@@ -14681,7 +16321,7 @@
       </c>
     </row>
     <row r="48" ht="30" spans="1:4">
-      <c r="A48" s="77">
+      <c r="A48" s="67">
         <v>32</v>
       </c>
       <c r="B48" s="25" t="s">
@@ -14692,64 +16332,64 @@
       </c>
     </row>
     <row r="50" s="25" customFormat="1" spans="1:4">
-      <c r="A50" s="77"/>
-      <c r="B50" s="84" t="s">
+      <c r="A50" s="67"/>
+      <c r="B50" s="98" t="s">
         <v>100</v>
       </c>
-      <c r="C50" s="84"/>
-      <c r="D50" s="84"/>
+      <c r="C50" s="98"/>
+      <c r="D50" s="98"/>
     </row>
     <row r="51" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A51" s="79"/>
+      <c r="A51" s="94"/>
       <c r="B51" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="87"/>
+      <c r="C51" s="101"/>
       <c r="D51" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="E51" s="63"/>
-      <c r="F51" s="63"/>
-      <c r="G51" s="63"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
     </row>
     <row r="52" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A52" s="79"/>
+      <c r="A52" s="94"/>
       <c r="B52" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="C52" s="87"/>
+      <c r="C52" s="101"/>
       <c r="D52" s="28" t="s">
         <v>472</v>
       </c>
-      <c r="E52" s="63"/>
-      <c r="F52" s="63"/>
-      <c r="G52" s="63"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="48"/>
     </row>
     <row r="53" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A53" s="79"/>
+      <c r="A53" s="94"/>
       <c r="B53" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="C53" s="87"/>
+      <c r="C53" s="101"/>
       <c r="D53" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="E53" s="63"/>
-      <c r="F53" s="63"/>
-      <c r="G53" s="63"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="48"/>
     </row>
     <row r="54" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A54" s="79"/>
+      <c r="A54" s="94"/>
       <c r="B54" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="C54" s="87"/>
+      <c r="C54" s="101"/>
       <c r="D54" s="28" t="s">
         <v>473</v>
       </c>
-      <c r="E54" s="63"/>
-      <c r="F54" s="63"/>
-      <c r="G54" s="63"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -14769,7 +16409,7 @@
   <sheetPr/>
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D52" sqref="D52:E56"/>
     </sheetView>
   </sheetViews>
@@ -14790,14 +16430,14 @@
   </cols>
   <sheetData>
     <row r="1" s="25" customFormat="1" ht="86" customHeight="1" spans="1:11">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="49" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>474</v>
       </c>
       <c r="C1" s="4"/>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="49" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -14811,14 +16451,14 @@
       <c r="K1" s="4"/>
     </row>
     <row r="2" s="25" customFormat="1" spans="1:11">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="49" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="49" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="4"/>
@@ -14830,7 +16470,7 @@
       <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="49" t="s">
         <v>111</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -14838,21 +16478,21 @@
       </c>
     </row>
     <row r="4" s="25" customFormat="1" spans="1:9">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="65" t="s">
+      <c r="C4" s="100"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
     </row>
     <row r="5" s="25" customFormat="1" ht="90" spans="1:5">
       <c r="A5" s="4">
@@ -14871,7 +16511,7 @@
       <c r="E6" s="4"/>
     </row>
     <row r="8" s="25" customFormat="1" spans="1:4">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="50" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -14881,62 +16521,62 @@
       <c r="D8" s="4"/>
     </row>
     <row r="10" s="25" customFormat="1" ht="21" customHeight="1" spans="1:10">
-      <c r="A10" s="88" t="s">
+      <c r="A10" s="102" t="s">
         <v>215</v>
       </c>
-      <c r="B10" s="89" t="s">
+      <c r="B10" s="103" t="s">
         <v>216</v>
       </c>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="90"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
     </row>
     <row r="11" s="25" customFormat="1" ht="15.75" spans="1:10">
-      <c r="A11" s="91"/>
-      <c r="B11" s="92" t="s">
+      <c r="A11" s="105"/>
+      <c r="B11" s="106" t="s">
         <v>217</v>
       </c>
-      <c r="C11" s="92" t="s">
+      <c r="C11" s="106" t="s">
         <v>218</v>
       </c>
-      <c r="D11" s="92" t="s">
+      <c r="D11" s="106" t="s">
         <v>219</v>
       </c>
-      <c r="E11" s="92" t="s">
+      <c r="E11" s="106" t="s">
         <v>220</v>
       </c>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92" t="s">
+      <c r="F11" s="106"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="106" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="12" s="25" customFormat="1" spans="1:10">
-      <c r="A12" s="91"/>
-      <c r="B12" s="69" t="s">
+      <c r="A12" s="105"/>
+      <c r="B12" s="90" t="s">
         <v>222</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="90" t="s">
         <v>222</v>
       </c>
-      <c r="D12" s="69" t="s">
+      <c r="D12" s="90" t="s">
         <v>222</v>
       </c>
-      <c r="E12" s="69" t="s">
+      <c r="E12" s="90" t="s">
         <v>222</v>
       </c>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69" t="s">
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="90" t="s">
         <v>222</v>
       </c>
     </row>
@@ -14949,7 +16589,7 @@
       </c>
     </row>
     <row r="14" s="25" customFormat="1" ht="45" spans="1:10">
-      <c r="A14" s="93" t="s">
+      <c r="A14" s="107" t="s">
         <v>478</v>
       </c>
       <c r="B14" s="25" t="s">
@@ -14965,57 +16605,57 @@
         <v>482</v>
       </c>
     </row>
-    <row r="16" s="77" customFormat="1" ht="30" spans="1:10">
-      <c r="A16" s="82" t="s">
+    <row r="16" s="67" customFormat="1" ht="30" spans="1:10">
+      <c r="A16" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="82" t="s">
+      <c r="B16" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="82" t="s">
+      <c r="C16" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="82" t="s">
+      <c r="D16" s="96" t="s">
         <v>115</v>
       </c>
-      <c r="E16" s="83" t="s">
+      <c r="E16" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="82" t="s">
+      <c r="F16" s="96" t="s">
         <v>116</v>
       </c>
-      <c r="G16" s="83" t="s">
+      <c r="G16" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="82" t="s">
+      <c r="H16" s="96" t="s">
         <v>483</v>
       </c>
-      <c r="I16" s="83" t="s">
+      <c r="I16" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="J16" s="83" t="s">
+      <c r="J16" s="97" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" s="25" customFormat="1" ht="30" spans="1:10">
-      <c r="A17" s="80"/>
-      <c r="B17" s="69" t="s">
+      <c r="A17" s="53"/>
+      <c r="B17" s="90" t="s">
         <v>484</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="72"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="56"/>
     </row>
     <row r="18" s="25" customFormat="1" ht="30" spans="1:10">
-      <c r="A18" s="73">
+      <c r="A18" s="57">
         <v>1</v>
       </c>
-      <c r="B18" s="81" t="s">
+      <c r="B18" s="95" t="s">
         <v>485</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -15042,7 +16682,7 @@
       <c r="J18" s="4"/>
     </row>
     <row r="19" s="25" customFormat="1" ht="30" spans="1:9">
-      <c r="A19" s="77">
+      <c r="A19" s="67">
         <v>2</v>
       </c>
       <c r="B19" s="25" t="s">
@@ -15071,7 +16711,7 @@
       </c>
     </row>
     <row r="20" ht="30" spans="1:9">
-      <c r="A20" s="77">
+      <c r="A20" s="67">
         <v>3</v>
       </c>
       <c r="B20" s="25" t="s">
@@ -15100,7 +16740,7 @@
       </c>
     </row>
     <row r="21" ht="30" spans="1:9">
-      <c r="A21" s="77">
+      <c r="A21" s="67">
         <v>4</v>
       </c>
       <c r="B21" s="25" t="s">
@@ -15129,28 +16769,28 @@
       </c>
     </row>
     <row r="22" ht="75" spans="1:9">
-      <c r="A22" s="77">
+      <c r="A22" s="67">
         <v>5</v>
       </c>
       <c r="B22" s="25" t="s">
         <v>494</v>
       </c>
-      <c r="C22" s="74" t="s">
+      <c r="C22" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="D22" s="74" t="s">
+      <c r="D22" s="58" t="s">
         <v>287</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="F22" s="74" t="s">
+      <c r="F22" s="58" t="s">
         <v>287</v>
       </c>
       <c r="G22" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="H22" s="74" t="s">
+      <c r="H22" s="58" t="s">
         <v>287</v>
       </c>
       <c r="I22" s="20" t="s">
@@ -15158,7 +16798,7 @@
       </c>
     </row>
     <row r="23" ht="45" spans="1:9">
-      <c r="A23" s="77">
+      <c r="A23" s="67">
         <v>6</v>
       </c>
       <c r="B23" s="25" t="s">
@@ -15187,28 +16827,28 @@
       </c>
     </row>
     <row r="24" ht="75" spans="1:9">
-      <c r="A24" s="77">
+      <c r="A24" s="67">
         <v>7</v>
       </c>
       <c r="B24" s="25" t="s">
         <v>498</v>
       </c>
-      <c r="C24" s="74" t="s">
+      <c r="C24" s="58" t="s">
         <v>295</v>
       </c>
-      <c r="D24" s="74" t="s">
+      <c r="D24" s="58" t="s">
         <v>296</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="F24" s="74" t="s">
+      <c r="F24" s="58" t="s">
         <v>296</v>
       </c>
       <c r="G24" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="H24" s="74" t="s">
+      <c r="H24" s="58" t="s">
         <v>296</v>
       </c>
       <c r="I24" s="20" t="s">
@@ -15216,26 +16856,26 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="77"/>
+      <c r="A25" s="67"/>
       <c r="B25" s="25" t="s">
         <v>499</v>
       </c>
-      <c r="C25" s="81" t="s">
+      <c r="C25" s="95" t="s">
         <v>500</v>
       </c>
-      <c r="D25" s="81" t="s">
+      <c r="D25" s="95" t="s">
         <v>501</v>
       </c>
       <c r="E25" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="F25" s="81" t="s">
+      <c r="F25" s="95" t="s">
         <v>501</v>
       </c>
       <c r="G25" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="H25" s="81" t="s">
+      <c r="H25" s="95" t="s">
         <v>501</v>
       </c>
       <c r="I25" s="20" t="s">
@@ -15243,7 +16883,7 @@
       </c>
     </row>
     <row r="26" ht="45" spans="1:9">
-      <c r="A26" s="77">
+      <c r="A26" s="67">
         <v>8</v>
       </c>
       <c r="B26" s="25" t="s">
@@ -15272,7 +16912,7 @@
       </c>
     </row>
     <row r="27" ht="30" spans="1:9">
-      <c r="A27" s="77">
+      <c r="A27" s="67">
         <v>9</v>
       </c>
       <c r="B27" s="25" t="s">
@@ -15301,7 +16941,7 @@
       </c>
     </row>
     <row r="28" ht="60" spans="1:9">
-      <c r="A28" s="77">
+      <c r="A28" s="67">
         <v>10</v>
       </c>
       <c r="B28" s="25" t="s">
@@ -15330,7 +16970,7 @@
       </c>
     </row>
     <row r="29" ht="30" spans="1:9">
-      <c r="A29" s="77">
+      <c r="A29" s="67">
         <v>11</v>
       </c>
       <c r="B29" s="25" t="s">
@@ -15359,7 +16999,7 @@
       </c>
     </row>
     <row r="30" ht="30" spans="1:9">
-      <c r="A30" s="77">
+      <c r="A30" s="67">
         <v>12</v>
       </c>
       <c r="B30" s="25" t="s">
@@ -15388,7 +17028,7 @@
       </c>
     </row>
     <row r="31" ht="30" spans="1:9">
-      <c r="A31" s="77">
+      <c r="A31" s="67">
         <v>13</v>
       </c>
       <c r="B31" s="25" t="s">
@@ -15417,7 +17057,7 @@
       </c>
     </row>
     <row r="32" ht="30" spans="1:9">
-      <c r="A32" s="77">
+      <c r="A32" s="67">
         <v>14</v>
       </c>
       <c r="B32" s="25" t="s">
@@ -15446,7 +17086,7 @@
       </c>
     </row>
     <row r="33" ht="60" spans="1:9">
-      <c r="A33" s="77">
+      <c r="A33" s="67">
         <v>15</v>
       </c>
       <c r="B33" s="25" t="s">
@@ -15475,7 +17115,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="77">
+      <c r="A34" s="67">
         <v>16</v>
       </c>
       <c r="B34" s="25" t="s">
@@ -15504,7 +17144,7 @@
       </c>
     </row>
     <row r="35" ht="30" spans="1:9">
-      <c r="A35" s="77">
+      <c r="A35" s="67">
         <v>17</v>
       </c>
       <c r="B35" s="25" t="s">
@@ -15533,7 +17173,7 @@
       </c>
     </row>
     <row r="36" ht="30" spans="1:9">
-      <c r="A36" s="77">
+      <c r="A36" s="67">
         <v>18</v>
       </c>
       <c r="B36" s="25" t="s">
@@ -15562,7 +17202,7 @@
       </c>
     </row>
     <row r="37" ht="75" spans="1:9">
-      <c r="A37" s="77">
+      <c r="A37" s="67">
         <v>19</v>
       </c>
       <c r="B37" s="25" t="s">
@@ -15591,7 +17231,7 @@
       </c>
     </row>
     <row r="38" ht="30" spans="1:9">
-      <c r="A38" s="77">
+      <c r="A38" s="67">
         <v>20</v>
       </c>
       <c r="B38" s="25" t="s">
@@ -15620,7 +17260,7 @@
       </c>
     </row>
     <row r="39" ht="30" spans="1:9">
-      <c r="A39" s="77">
+      <c r="A39" s="67">
         <v>21</v>
       </c>
       <c r="B39" s="25" t="s">
@@ -15649,7 +17289,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="77">
+      <c r="A40" s="67">
         <v>22</v>
       </c>
       <c r="B40" s="25" t="s">
@@ -15678,7 +17318,7 @@
       </c>
     </row>
     <row r="41" ht="60" spans="1:9">
-      <c r="A41" s="77">
+      <c r="A41" s="67">
         <v>23</v>
       </c>
       <c r="B41" s="25" t="s">
@@ -15707,7 +17347,7 @@
       </c>
     </row>
     <row r="42" ht="30" spans="1:9">
-      <c r="A42" s="77">
+      <c r="A42" s="67">
         <v>24</v>
       </c>
       <c r="B42" s="25" t="s">
@@ -15736,7 +17376,7 @@
       </c>
     </row>
     <row r="43" ht="45" spans="1:9">
-      <c r="A43" s="77">
+      <c r="A43" s="67">
         <v>25</v>
       </c>
       <c r="B43" s="25" t="s">
@@ -15765,7 +17405,7 @@
       </c>
     </row>
     <row r="44" ht="30" spans="1:9">
-      <c r="A44" s="77">
+      <c r="A44" s="67">
         <v>26</v>
       </c>
       <c r="B44" s="25" t="s">
@@ -15794,7 +17434,7 @@
       </c>
     </row>
     <row r="45" ht="75" spans="1:9">
-      <c r="A45" s="77">
+      <c r="A45" s="67">
         <v>27</v>
       </c>
       <c r="B45" s="25" t="s">
@@ -15823,7 +17463,7 @@
       </c>
     </row>
     <row r="46" s="25" customFormat="1" ht="30" spans="1:9">
-      <c r="A46" s="77">
+      <c r="A46" s="67">
         <v>28</v>
       </c>
       <c r="B46" s="25" t="s">
@@ -15852,7 +17492,7 @@
       </c>
     </row>
     <row r="47" s="25" customFormat="1" ht="60" spans="1:9">
-      <c r="A47" s="77">
+      <c r="A47" s="67">
         <v>29</v>
       </c>
       <c r="B47" s="25" t="s">
@@ -15881,7 +17521,7 @@
       </c>
     </row>
     <row r="48" s="25" customFormat="1" ht="30" spans="1:9">
-      <c r="A48" s="77">
+      <c r="A48" s="67">
         <v>30</v>
       </c>
       <c r="B48" s="25" t="s">
@@ -15910,7 +17550,7 @@
       </c>
     </row>
     <row r="49" s="25" customFormat="1" ht="45" spans="1:9">
-      <c r="A49" s="77">
+      <c r="A49" s="67">
         <v>31</v>
       </c>
       <c r="B49" s="25" t="s">
@@ -15939,7 +17579,7 @@
       </c>
     </row>
     <row r="50" s="25" customFormat="1" ht="45" spans="1:9">
-      <c r="A50" s="77">
+      <c r="A50" s="67">
         <v>32</v>
       </c>
       <c r="B50" s="25" t="s">
@@ -15969,24 +17609,24 @@
     </row>
     <row r="51" ht="17" customHeight="1"/>
     <row r="52" s="25" customFormat="1" spans="1:9">
-      <c r="A52" s="77"/>
-      <c r="B52" s="84" t="s">
+      <c r="A52" s="67"/>
+      <c r="B52" s="98" t="s">
         <v>100</v>
       </c>
-      <c r="C52" s="84"/>
-      <c r="D52" s="58" t="s">
+      <c r="C52" s="98"/>
+      <c r="D52" s="83" t="s">
         <v>203</v>
       </c>
-      <c r="E52" s="85" t="s">
+      <c r="E52" s="99" t="s">
         <v>204</v>
       </c>
-      <c r="F52" s="78"/>
-      <c r="G52" s="78"/>
-      <c r="H52" s="78"/>
-      <c r="I52" s="78"/>
-    </row>
-    <row r="53" s="63" customFormat="1" ht="45" spans="1:9">
-      <c r="A53" s="79"/>
+      <c r="F52" s="93"/>
+      <c r="G52" s="93"/>
+      <c r="H52" s="93"/>
+      <c r="I52" s="93"/>
+    </row>
+    <row r="53" s="48" customFormat="1" ht="45" spans="1:9">
+      <c r="A53" s="94"/>
       <c r="B53" s="28" t="s">
         <v>101</v>
       </c>
@@ -16004,8 +17644,8 @@
       <c r="H53" s="25"/>
       <c r="I53" s="25"/>
     </row>
-    <row r="54" s="63" customFormat="1" ht="30" spans="1:9">
-      <c r="A54" s="79"/>
+    <row r="54" s="48" customFormat="1" ht="30" spans="1:9">
+      <c r="A54" s="94"/>
       <c r="B54" s="28" t="s">
         <v>103</v>
       </c>
@@ -16023,8 +17663,8 @@
       <c r="H54" s="25"/>
       <c r="I54" s="25"/>
     </row>
-    <row r="55" s="63" customFormat="1" ht="30" spans="1:9">
-      <c r="A55" s="79"/>
+    <row r="55" s="48" customFormat="1" ht="30" spans="1:9">
+      <c r="A55" s="94"/>
       <c r="B55" s="28" t="s">
         <v>105</v>
       </c>
@@ -16042,8 +17682,8 @@
       <c r="H55" s="25"/>
       <c r="I55" s="25"/>
     </row>
-    <row r="56" s="63" customFormat="1" ht="30" spans="1:9">
-      <c r="A56" s="79"/>
+    <row r="56" s="48" customFormat="1" ht="30" spans="1:9">
+      <c r="A56" s="94"/>
       <c r="B56" s="28" t="s">
         <v>107</v>
       </c>
@@ -16081,13 +17721,13 @@
   </sheetPr>
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="19.8571428571429" style="77" customWidth="1"/>
+    <col min="1" max="1" width="19.8571428571429" style="67" customWidth="1"/>
     <col min="2" max="2" width="75.7142857142857" style="25" customWidth="1"/>
     <col min="3" max="3" width="14.1428571428571" style="25" customWidth="1"/>
     <col min="4" max="4" width="84.1428571428571" style="25" customWidth="1"/>
@@ -16098,14 +17738,14 @@
   </cols>
   <sheetData>
     <row r="1" s="25" customFormat="1" ht="80" customHeight="1" spans="1:7">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="49" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>569</v>
       </c>
       <c r="C1" s="4"/>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="49" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -16115,14 +17755,14 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" s="25" customFormat="1" spans="1:7">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="49" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="49" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="4"/>
@@ -16131,18 +17771,18 @@
     </row>
     <row r="3" s="25" customFormat="1"/>
     <row r="4" s="25" customFormat="1" spans="1:6">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="65" t="s">
+      <c r="C4" s="100"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="50" t="s">
         <v>26</v>
       </c>
     </row>
@@ -16167,7 +17807,7 @@
     </row>
     <row r="7" s="25" customFormat="1"/>
     <row r="8" s="25" customFormat="1" spans="1:4">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="50" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -16177,48 +17817,48 @@
       <c r="D8" s="4"/>
     </row>
     <row r="9" s="25" customFormat="1"/>
-    <row r="10" s="77" customFormat="1" spans="1:7">
-      <c r="A10" s="82" t="s">
+    <row r="10" s="67" customFormat="1" spans="1:7">
+      <c r="A10" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="82" t="s">
+      <c r="C10" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="82" t="s">
+      <c r="D10" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="82" t="s">
+      <c r="E10" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="83" t="s">
+      <c r="F10" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="83" t="s">
+      <c r="G10" s="97" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" s="25" customFormat="1" spans="1:7">
-      <c r="A11" s="80"/>
-      <c r="B11" s="69" t="s">
+      <c r="A11" s="53"/>
+      <c r="B11" s="90" t="s">
         <v>573</v>
       </c>
-      <c r="C11" s="69"/>
+      <c r="C11" s="90"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="72"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="56"/>
     </row>
     <row r="12" s="25" customFormat="1" spans="1:7">
-      <c r="A12" s="73">
+      <c r="A12" s="57">
         <v>1</v>
       </c>
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="95" t="s">
         <v>574</v>
       </c>
-      <c r="C12" s="81"/>
+      <c r="C12" s="95"/>
       <c r="D12" s="4" t="s">
         <v>575</v>
       </c>
@@ -16227,7 +17867,7 @@
       <c r="G12" s="4"/>
     </row>
     <row r="13" s="25" customFormat="1" spans="1:4">
-      <c r="A13" s="77">
+      <c r="A13" s="67">
         <v>2</v>
       </c>
       <c r="B13" s="25" t="s">
@@ -16238,7 +17878,7 @@
       </c>
     </row>
     <row r="14" s="25" customFormat="1" ht="30" spans="1:4">
-      <c r="A14" s="77">
+      <c r="A14" s="67">
         <v>3</v>
       </c>
       <c r="B14" s="25" t="s">
@@ -16249,7 +17889,7 @@
       </c>
     </row>
     <row r="15" s="25" customFormat="1" ht="30" spans="1:4">
-      <c r="A15" s="77">
+      <c r="A15" s="67">
         <v>4</v>
       </c>
       <c r="B15" s="25" t="s">
@@ -16260,51 +17900,51 @@
       </c>
     </row>
     <row r="16" ht="45" spans="1:4">
-      <c r="A16" s="77">
+      <c r="A16" s="67">
         <v>5</v>
       </c>
       <c r="B16" s="25" t="s">
         <v>580</v>
       </c>
-      <c r="D16" s="74" t="s">
+      <c r="D16" s="58" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="17" ht="45" spans="1:4">
-      <c r="A17" s="77">
+      <c r="A17" s="67">
         <v>6</v>
       </c>
       <c r="B17" s="25" t="s">
         <v>581</v>
       </c>
-      <c r="D17" s="74" t="s">
+      <c r="D17" s="58" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="18" ht="45" spans="1:4">
-      <c r="A18" s="77">
+      <c r="A18" s="67">
         <v>7</v>
       </c>
       <c r="B18" s="25" t="s">
         <v>583</v>
       </c>
-      <c r="D18" s="74" t="s">
+      <c r="D18" s="58" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="19" ht="45" spans="1:4">
-      <c r="A19" s="77">
+      <c r="A19" s="67">
         <v>8</v>
       </c>
       <c r="B19" s="25" t="s">
         <v>585</v>
       </c>
-      <c r="D19" s="74" t="s">
+      <c r="D19" s="58" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="20" s="25" customFormat="1" spans="1:4">
-      <c r="A20" s="77">
+      <c r="A20" s="67">
         <v>9</v>
       </c>
       <c r="B20" s="25" t="s">
@@ -16315,7 +17955,7 @@
       </c>
     </row>
     <row r="21" s="25" customFormat="1" spans="1:4">
-      <c r="A21" s="77">
+      <c r="A21" s="67">
         <v>10</v>
       </c>
       <c r="B21" s="25" t="s">
@@ -16326,7 +17966,7 @@
       </c>
     </row>
     <row r="22" s="25" customFormat="1" spans="1:4">
-      <c r="A22" s="77">
+      <c r="A22" s="67">
         <v>11</v>
       </c>
       <c r="B22" s="25" t="s">
@@ -16337,18 +17977,18 @@
       </c>
     </row>
     <row r="23" s="25" customFormat="1" ht="45" spans="1:4">
-      <c r="A23" s="77">
+      <c r="A23" s="67">
         <v>12</v>
       </c>
       <c r="B23" s="25" t="s">
         <v>535</v>
       </c>
-      <c r="D23" s="74" t="s">
+      <c r="D23" s="58" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="24" s="25" customFormat="1" spans="1:4">
-      <c r="A24" s="77">
+      <c r="A24" s="67">
         <v>13</v>
       </c>
       <c r="B24" s="25" t="s">
@@ -16359,7 +17999,7 @@
       </c>
     </row>
     <row r="25" s="25" customFormat="1" spans="1:4">
-      <c r="A25" s="77">
+      <c r="A25" s="67">
         <v>14</v>
       </c>
       <c r="B25" s="25" t="s">
@@ -16370,7 +18010,7 @@
       </c>
     </row>
     <row r="26" s="25" customFormat="1" spans="1:4">
-      <c r="A26" s="77">
+      <c r="A26" s="67">
         <v>15</v>
       </c>
       <c r="B26" s="25" t="s">
@@ -16381,7 +18021,7 @@
       </c>
     </row>
     <row r="27" s="25" customFormat="1" ht="30" spans="1:4">
-      <c r="A27" s="77">
+      <c r="A27" s="67">
         <v>16</v>
       </c>
       <c r="B27" s="25" t="s">
@@ -16392,7 +18032,7 @@
       </c>
     </row>
     <row r="28" s="25" customFormat="1" spans="1:4">
-      <c r="A28" s="77">
+      <c r="A28" s="67">
         <v>17</v>
       </c>
       <c r="B28" s="25" t="s">
@@ -16403,7 +18043,7 @@
       </c>
     </row>
     <row r="29" s="25" customFormat="1" ht="45" spans="1:4">
-      <c r="A29" s="77">
+      <c r="A29" s="67">
         <v>18</v>
       </c>
       <c r="B29" s="25" t="s">
@@ -16414,7 +18054,7 @@
       </c>
     </row>
     <row r="30" s="25" customFormat="1" spans="1:4">
-      <c r="A30" s="77">
+      <c r="A30" s="67">
         <v>19</v>
       </c>
       <c r="B30" s="25" t="s">
@@ -16425,7 +18065,7 @@
       </c>
     </row>
     <row r="31" s="25" customFormat="1" spans="1:4">
-      <c r="A31" s="77">
+      <c r="A31" s="67">
         <v>20</v>
       </c>
       <c r="B31" s="25" t="s">
@@ -16436,7 +18076,7 @@
       </c>
     </row>
     <row r="32" s="25" customFormat="1" ht="30" spans="1:4">
-      <c r="A32" s="77">
+      <c r="A32" s="67">
         <v>21</v>
       </c>
       <c r="B32" s="25" t="s">
@@ -16447,7 +18087,7 @@
       </c>
     </row>
     <row r="33" s="25" customFormat="1" ht="30" spans="1:4">
-      <c r="A33" s="77">
+      <c r="A33" s="67">
         <v>22</v>
       </c>
       <c r="B33" s="25" t="s">
@@ -16458,64 +18098,64 @@
       </c>
     </row>
     <row r="35" s="25" customFormat="1" spans="1:4">
-      <c r="A35" s="77"/>
-      <c r="B35" s="84" t="s">
+      <c r="A35" s="67"/>
+      <c r="B35" s="98" t="s">
         <v>100</v>
       </c>
-      <c r="C35" s="84"/>
-      <c r="D35" s="84"/>
+      <c r="C35" s="98"/>
+      <c r="D35" s="98"/>
     </row>
     <row r="36" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A36" s="79"/>
+      <c r="A36" s="94"/>
       <c r="B36" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="C36" s="87"/>
+      <c r="C36" s="101"/>
       <c r="D36" s="28" t="s">
         <v>596</v>
       </c>
-      <c r="E36" s="63"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="63"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
     </row>
     <row r="37" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A37" s="79"/>
+      <c r="A37" s="94"/>
       <c r="B37" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="C37" s="87"/>
+      <c r="C37" s="101"/>
       <c r="D37" s="28" t="s">
         <v>596</v>
       </c>
-      <c r="E37" s="63"/>
-      <c r="F37" s="63"/>
-      <c r="G37" s="63"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
     </row>
     <row r="38" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A38" s="79"/>
+      <c r="A38" s="94"/>
       <c r="B38" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="C38" s="87"/>
+      <c r="C38" s="101"/>
       <c r="D38" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="E38" s="63"/>
-      <c r="F38" s="63"/>
-      <c r="G38" s="63"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
     </row>
     <row r="39" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A39" s="79"/>
+      <c r="A39" s="94"/>
       <c r="B39" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="C39" s="87"/>
+      <c r="C39" s="101"/>
       <c r="D39" s="28" t="s">
         <v>597</v>
       </c>
-      <c r="E39" s="63"/>
-      <c r="F39" s="63"/>
-      <c r="G39" s="63"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="3">
